--- a/era uma vez em hollywood.xlsx
+++ b/era uma vez em hollywood.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizbernardino/Documents/p2_datascience/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046311A0-D54B-D24B-92A0-3890A3BB5B0C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="627">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2217,12 +2223,15 @@
   <si>
     <t>rt @rafashins: era uma vez em hollywood... um filme bom e ruim ao mesmo tempo. não sai feliz e nem triste do cinema, bagulho estranho. uaeh…</t>
   </si>
+  <si>
+    <t>classificação</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2274,9 +2283,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2285,11 +2297,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2331,7 +2351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2363,9 +2383,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2397,6 +2435,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2572,1514 +2628,1516 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A267" zoomScale="90" workbookViewId="0">
+      <selection activeCell="AE13" sqref="AE13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>251</v>
       </c>
@@ -4090,2266 +4148,3621 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A451"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B451"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="202" spans="1:1">
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="203" spans="1:1">
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="205" spans="1:1">
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="206" spans="1:1">
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="207" spans="1:1">
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="208" spans="1:1">
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="209" spans="1:1">
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="1:1">
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="211" spans="1:1">
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="212" spans="1:1">
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="213" spans="1:1">
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="214" spans="1:1">
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="215" spans="1:1">
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="216" spans="1:1">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="217" spans="1:1">
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="218" spans="1:1">
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="219" spans="1:1">
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="220" spans="1:1">
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="221" spans="1:1">
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="222" spans="1:1">
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="223" spans="1:1">
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="224" spans="1:1">
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="225" spans="1:1">
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="226" spans="1:1">
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="227" spans="1:1">
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="228" spans="1:1">
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="229" spans="1:1">
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="230" spans="1:1">
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="231" spans="1:1">
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="232" spans="1:1">
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="233" spans="1:1">
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="234" spans="1:1">
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="235" spans="1:1">
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="236" spans="1:1">
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="237" spans="1:1">
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="238" spans="1:1">
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="239" spans="1:1">
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="240" spans="1:1">
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="241" spans="1:1">
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="242" spans="1:1">
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="243" spans="1:1">
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="244" spans="1:1">
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="245" spans="1:1">
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="246" spans="1:1">
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="247" spans="1:1">
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="248" spans="1:1">
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="249" spans="1:1">
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="250" spans="1:1">
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="251" spans="1:1">
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="252" spans="1:1">
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="253" spans="1:1">
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="254" spans="1:1">
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="255" spans="1:1">
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="256" spans="1:1">
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="257" spans="1:1">
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="258" spans="1:1">
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="259" spans="1:1">
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="260" spans="1:1">
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="261" spans="1:1">
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="262" spans="1:1">
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="263" spans="1:1">
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="264" spans="1:1">
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="265" spans="1:1">
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="266" spans="1:1">
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="267" spans="1:1">
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="268" spans="1:1">
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="269" spans="1:1">
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="270" spans="1:1">
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="271" spans="1:1">
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="272" spans="1:1">
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="273" spans="1:1">
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="274" spans="1:1">
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="275" spans="1:1">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="276" spans="1:1">
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="277" spans="1:1">
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="278" spans="1:1">
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="279" spans="1:1">
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="280" spans="1:1">
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="281" spans="1:1">
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="282" spans="1:1">
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="283" spans="1:1">
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="284" spans="1:1">
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="285" spans="1:1">
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="286" spans="1:1">
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="287" spans="1:1">
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="288" spans="1:1">
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="289" spans="1:1">
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="290" spans="1:1">
+      <c r="B289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="291" spans="1:1">
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="292" spans="1:1">
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="293" spans="1:1">
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="294" spans="1:1">
+      <c r="B293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="295" spans="1:1">
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="296" spans="1:1">
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="297" spans="1:1">
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="298" spans="1:1">
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="299" spans="1:1">
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="300" spans="1:1">
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="301" spans="1:1">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="302" spans="1:1">
+      <c r="B301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="303" spans="1:1">
+      <c r="B302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="304" spans="1:1">
+      <c r="B303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="305" spans="1:1">
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="306" spans="1:1">
+      <c r="B305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="307" spans="1:1">
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="308" spans="1:1">
+      <c r="B307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="309" spans="1:1">
+      <c r="B308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="310" spans="1:1">
+      <c r="B309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="311" spans="1:1">
+      <c r="B310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="312" spans="1:1">
+      <c r="B311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="313" spans="1:1">
+      <c r="B312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="314" spans="1:1">
+      <c r="B313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="315" spans="1:1">
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="316" spans="1:1">
+      <c r="B315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="317" spans="1:1">
+      <c r="B316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="318" spans="1:1">
+      <c r="B317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="319" spans="1:1">
+      <c r="B318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="320" spans="1:1">
+      <c r="B319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="321" spans="1:1">
+      <c r="B320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="322" spans="1:1">
+      <c r="B321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="323" spans="1:1">
+      <c r="B322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="324" spans="1:1">
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="325" spans="1:1">
+      <c r="B324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="326" spans="1:1">
+      <c r="B325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="327" spans="1:1">
+      <c r="B326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="328" spans="1:1">
+      <c r="B327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="329" spans="1:1">
+      <c r="B328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="330" spans="1:1">
+      <c r="B329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="331" spans="1:1">
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="332" spans="1:1">
+      <c r="B331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="333" spans="1:1">
+      <c r="B332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="334" spans="1:1">
+      <c r="B333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="335" spans="1:1">
+      <c r="B334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="336" spans="1:1">
+      <c r="B335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="337" spans="1:1">
+      <c r="B336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="338" spans="1:1">
+      <c r="B337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="339" spans="1:1">
+      <c r="B338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="340" spans="1:1">
+      <c r="B339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="341" spans="1:1">
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="342" spans="1:1">
+      <c r="B341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="343" spans="1:1">
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="344" spans="1:1">
+      <c r="B343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="345" spans="1:1">
+      <c r="B344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="346" spans="1:1">
+      <c r="B345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="347" spans="1:1">
+      <c r="B346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="348" spans="1:1">
+      <c r="B347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="349" spans="1:1">
+      <c r="B348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="350" spans="1:1">
+      <c r="B349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="351" spans="1:1">
+      <c r="B350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="352" spans="1:1">
+      <c r="B351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="353" spans="1:1">
+      <c r="B352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="354" spans="1:1">
+      <c r="B353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="355" spans="1:1">
+      <c r="B354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="356" spans="1:1">
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="357" spans="1:1">
+      <c r="B356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="358" spans="1:1">
+      <c r="B357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="359" spans="1:1">
+      <c r="B358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="360" spans="1:1">
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="361" spans="1:1">
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="362" spans="1:1">
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="363" spans="1:1">
+      <c r="B362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="364" spans="1:1">
+      <c r="B363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="365" spans="1:1">
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="366" spans="1:1">
+      <c r="B365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="367" spans="1:1">
+      <c r="B366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="368" spans="1:1">
+      <c r="B367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="369" spans="1:1">
+      <c r="B368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="370" spans="1:1">
+      <c r="B369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="371" spans="1:1">
+      <c r="B370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="372" spans="1:1">
+      <c r="B371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="373" spans="1:1">
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="374" spans="1:1">
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="375" spans="1:1">
+      <c r="B374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="376" spans="1:1">
+      <c r="B375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="377" spans="1:1">
+      <c r="B376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="378" spans="1:1">
+      <c r="B377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="379" spans="1:1">
+      <c r="B378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="380" spans="1:1">
+      <c r="B379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="381" spans="1:1">
+      <c r="B380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="382" spans="1:1">
+      <c r="B381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="383" spans="1:1">
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="384" spans="1:1">
+      <c r="B383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="385" spans="1:1">
+      <c r="B384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="386" spans="1:1">
+      <c r="B385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="387" spans="1:1">
+      <c r="B386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="388" spans="1:1">
+      <c r="B387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="389" spans="1:1">
+      <c r="B388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="390" spans="1:1">
+      <c r="B389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="391" spans="1:1">
+      <c r="B390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="392" spans="1:1">
+      <c r="B391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="393" spans="1:1">
+      <c r="B392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="394" spans="1:1">
+      <c r="B393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="395" spans="1:1">
+      <c r="B394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="396" spans="1:1">
+      <c r="B395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="397" spans="1:1">
+      <c r="B396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="398" spans="1:1">
+      <c r="B397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="399" spans="1:1">
+      <c r="B398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="400" spans="1:1">
+      <c r="B399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="401" spans="1:1">
+      <c r="B400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="402" spans="1:1">
+      <c r="B401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="403" spans="1:1">
+      <c r="B402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="404" spans="1:1">
+      <c r="B403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="405" spans="1:1">
+      <c r="B404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="406" spans="1:1">
+      <c r="B405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="407" spans="1:1">
+      <c r="B406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="408" spans="1:1">
+      <c r="B407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="409" spans="1:1">
+      <c r="B408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="410" spans="1:1">
+      <c r="B409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="411" spans="1:1">
+      <c r="B410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="412" spans="1:1">
+      <c r="B411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="413" spans="1:1">
+      <c r="B412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="414" spans="1:1">
+      <c r="B413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="415" spans="1:1">
+      <c r="B414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="416" spans="1:1">
+      <c r="B415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="417" spans="1:1">
+      <c r="B416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="418" spans="1:1">
+      <c r="B417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="419" spans="1:1">
+      <c r="B418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="420" spans="1:1">
+      <c r="B419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="421" spans="1:1">
+      <c r="B420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="422" spans="1:1">
+      <c r="B421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="423" spans="1:1">
+      <c r="B422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="424" spans="1:1">
+      <c r="B423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="425" spans="1:1">
+      <c r="B424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="426" spans="1:1">
+      <c r="B425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="427" spans="1:1">
+      <c r="B426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="428" spans="1:1">
+      <c r="B427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="429" spans="1:1">
+      <c r="B428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="430" spans="1:1">
+      <c r="B429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="431" spans="1:1">
+      <c r="B430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="432" spans="1:1">
+      <c r="B431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="433" spans="1:1">
+      <c r="B432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="434" spans="1:1">
+      <c r="B433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="435" spans="1:1">
+      <c r="B434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="436" spans="1:1">
+      <c r="B435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="437" spans="1:1">
+      <c r="B436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="438" spans="1:1">
+      <c r="B437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="439" spans="1:1">
+      <c r="B438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="440" spans="1:1">
+      <c r="B439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="441" spans="1:1">
+      <c r="B440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="442" spans="1:1">
+      <c r="B441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="443" spans="1:1">
+      <c r="B442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="444" spans="1:1">
+      <c r="B443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="445" spans="1:1">
+      <c r="B444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="446" spans="1:1">
+      <c r="B445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="447" spans="1:1">
+      <c r="B446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="448" spans="1:1">
+      <c r="B447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="449" spans="1:1">
+      <c r="B448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="450" spans="1:1">
+      <c r="B449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="451" spans="1:1">
+      <c r="B450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>625</v>
+      </c>
+      <c r="B451">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/era uma vez em hollywood.xlsx
+++ b/era uma vez em hollywood.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizbernardino/Documents/p2_datascience/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitor Bandeira\Desktop\Ciência dos dados\Projeto2\p2_datascience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046311A0-D54B-D24B-92A0-3890A3BB5B0C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B05386-6663-45C1-8E6D-B92A91A09D3E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="628">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2225,6 +2225,9 @@
   </si>
   <si>
     <t>classificação</t>
+  </si>
+  <si>
+    <t>Classificação</t>
   </si>
 </sst>
 </file>
@@ -2283,7 +2286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2291,6 +2294,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2629,1521 +2633,2425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A301"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView topLeftCell="A267" zoomScale="90" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>251</v>
       </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4151,13 +5059,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B451"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>252</v>
       </c>
@@ -4165,7 +5073,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>253</v>
       </c>
@@ -4173,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>254</v>
       </c>
@@ -4181,7 +5089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -4189,7 +5097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>255</v>
       </c>
@@ -4197,7 +5105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>256</v>
       </c>
@@ -4205,7 +5113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>257</v>
       </c>
@@ -4213,7 +5121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>258</v>
       </c>
@@ -4221,7 +5129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>259</v>
       </c>
@@ -4229,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4237,7 +5145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4245,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>145</v>
       </c>
@@ -4253,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>260</v>
       </c>
@@ -4261,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>261</v>
       </c>
@@ -4269,7 +5177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4277,7 +5185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>262</v>
       </c>
@@ -4285,7 +5193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4293,7 +5201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>263</v>
       </c>
@@ -4301,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>203</v>
       </c>
@@ -4309,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>264</v>
       </c>
@@ -4317,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>265</v>
       </c>
@@ -4325,7 +5233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -4333,7 +5241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>266</v>
       </c>
@@ -4341,7 +5249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>267</v>
       </c>
@@ -4349,7 +5257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>268</v>
       </c>
@@ -4357,7 +5265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>269</v>
       </c>
@@ -4365,7 +5273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>270</v>
       </c>
@@ -4373,7 +5281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>271</v>
       </c>
@@ -4381,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>272</v>
       </c>
@@ -4389,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -4397,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -4405,7 +5313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -4413,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>273</v>
       </c>
@@ -4421,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>274</v>
       </c>
@@ -4429,7 +5337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -4437,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>275</v>
       </c>
@@ -4445,7 +5353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>276</v>
       </c>
@@ -4453,7 +5361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>277</v>
       </c>
@@ -4461,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>278</v>
       </c>
@@ -4469,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>279</v>
       </c>
@@ -4477,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>280</v>
       </c>
@@ -4485,7 +5393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>281</v>
       </c>
@@ -4493,7 +5401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>282</v>
       </c>
@@ -4501,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -4509,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>283</v>
       </c>
@@ -4517,7 +5425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>284</v>
       </c>
@@ -4525,7 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>285</v>
       </c>
@@ -4533,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>286</v>
       </c>
@@ -4541,7 +5449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>287</v>
       </c>
@@ -4549,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>288</v>
       </c>
@@ -4557,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>289</v>
       </c>
@@ -4565,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>290</v>
       </c>
@@ -4573,7 +5481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>291</v>
       </c>
@@ -4581,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -4589,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>292</v>
       </c>
@@ -4597,7 +5505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -4605,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>293</v>
       </c>
@@ -4613,7 +5521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>294</v>
       </c>
@@ -4621,7 +5529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>295</v>
       </c>
@@ -4629,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>296</v>
       </c>
@@ -4637,7 +5545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>297</v>
       </c>
@@ -4645,7 +5553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>298</v>
       </c>
@@ -4653,7 +5561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>299</v>
       </c>
@@ -4661,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>300</v>
       </c>
@@ -4669,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>18</v>
       </c>
@@ -4677,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>301</v>
       </c>
@@ -4685,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>302</v>
       </c>
@@ -4693,7 +5601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>303</v>
       </c>
@@ -4701,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>304</v>
       </c>
@@ -4709,7 +5617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>305</v>
       </c>
@@ -4717,7 +5625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>306</v>
       </c>
@@ -4725,7 +5633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>307</v>
       </c>
@@ -4733,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>308</v>
       </c>
@@ -4741,7 +5649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>309</v>
       </c>
@@ -4749,7 +5657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>310</v>
       </c>
@@ -4757,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -4765,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>311</v>
       </c>
@@ -4773,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>312</v>
       </c>
@@ -4781,7 +5689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>313</v>
       </c>
@@ -4789,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>314</v>
       </c>
@@ -4797,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>315</v>
       </c>
@@ -4805,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>316</v>
       </c>
@@ -4813,7 +5721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -4821,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>317</v>
       </c>
@@ -4829,7 +5737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>318</v>
       </c>
@@ -4837,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>319</v>
       </c>
@@ -4845,7 +5753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>320</v>
       </c>
@@ -4853,7 +5761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>321</v>
       </c>
@@ -4861,7 +5769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>322</v>
       </c>
@@ -4869,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>323</v>
       </c>
@@ -4877,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>324</v>
       </c>
@@ -4885,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>325</v>
       </c>
@@ -4893,7 +5801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>326</v>
       </c>
@@ -4901,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>327</v>
       </c>
@@ -4909,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>328</v>
       </c>
@@ -4917,7 +5825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>329</v>
       </c>
@@ -4925,7 +5833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>330</v>
       </c>
@@ -4933,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>331</v>
       </c>
@@ -4941,7 +5849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>332</v>
       </c>
@@ -4949,7 +5857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>333</v>
       </c>
@@ -4957,7 +5865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>334</v>
       </c>
@@ -4965,7 +5873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>40</v>
       </c>
@@ -4973,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>41</v>
       </c>
@@ -4981,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>335</v>
       </c>
@@ -4989,7 +5897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -4997,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>336</v>
       </c>
@@ -5005,7 +5913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>337</v>
       </c>
@@ -5013,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>338</v>
       </c>
@@ -5021,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>339</v>
       </c>
@@ -5029,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>340</v>
       </c>
@@ -5037,7 +5945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>341</v>
       </c>
@@ -5045,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>342</v>
       </c>
@@ -5053,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>343</v>
       </c>
@@ -5061,7 +5969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>344</v>
       </c>
@@ -5069,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>345</v>
       </c>
@@ -5077,7 +5985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>346</v>
       </c>
@@ -5085,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>347</v>
       </c>
@@ -5093,7 +6001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>348</v>
       </c>
@@ -5101,7 +6009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>349</v>
       </c>
@@ -5109,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>350</v>
       </c>
@@ -5117,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>351</v>
       </c>
@@ -5125,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>40</v>
       </c>
@@ -5133,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>352</v>
       </c>
@@ -5141,7 +6049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>353</v>
       </c>
@@ -5149,7 +6057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -5157,7 +6065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>354</v>
       </c>
@@ -5165,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>355</v>
       </c>
@@ -5173,7 +6081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -5181,7 +6089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>18</v>
       </c>
@@ -5189,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>356</v>
       </c>
@@ -5197,7 +6105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>357</v>
       </c>
@@ -5205,7 +6113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>358</v>
       </c>
@@ -5213,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>359</v>
       </c>
@@ -5221,7 +6129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>360</v>
       </c>
@@ -5229,7 +6137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>361</v>
       </c>
@@ -5237,7 +6145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>362</v>
       </c>
@@ -5245,7 +6153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>363</v>
       </c>
@@ -5253,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>364</v>
       </c>
@@ -5261,7 +6169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -5269,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>365</v>
       </c>
@@ -5277,7 +6185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>18</v>
       </c>
@@ -5285,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>366</v>
       </c>
@@ -5293,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>367</v>
       </c>
@@ -5301,7 +6209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>368</v>
       </c>
@@ -5309,7 +6217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>369</v>
       </c>
@@ -5317,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>370</v>
       </c>
@@ -5325,7 +6233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>371</v>
       </c>
@@ -5333,7 +6241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>372</v>
       </c>
@@ -5341,7 +6249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>373</v>
       </c>
@@ -5349,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>374</v>
       </c>
@@ -5357,7 +6265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>375</v>
       </c>
@@ -5365,7 +6273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>376</v>
       </c>
@@ -5373,7 +6281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>377</v>
       </c>
@@ -5381,7 +6289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>378</v>
       </c>
@@ -5389,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>379</v>
       </c>
@@ -5397,7 +6305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -5405,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>380</v>
       </c>
@@ -5413,7 +6321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>381</v>
       </c>
@@ -5421,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>382</v>
       </c>
@@ -5429,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>383</v>
       </c>
@@ -5437,7 +6345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>384</v>
       </c>
@@ -5445,7 +6353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>385</v>
       </c>
@@ -5453,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>386</v>
       </c>
@@ -5461,7 +6369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>387</v>
       </c>
@@ -5469,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>388</v>
       </c>
@@ -5477,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>389</v>
       </c>
@@ -5485,7 +6393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>390</v>
       </c>
@@ -5493,7 +6401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>391</v>
       </c>
@@ -5501,7 +6409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>392</v>
       </c>
@@ -5509,7 +6417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>393</v>
       </c>
@@ -5517,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>394</v>
       </c>
@@ -5525,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>395</v>
       </c>
@@ -5533,7 +6441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>396</v>
       </c>
@@ -5541,7 +6449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>145</v>
       </c>
@@ -5549,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>397</v>
       </c>
@@ -5557,7 +6465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>8</v>
       </c>
@@ -5565,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>398</v>
       </c>
@@ -5573,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>399</v>
       </c>
@@ -5581,7 +6489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>400</v>
       </c>
@@ -5589,7 +6497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>401</v>
       </c>
@@ -5597,7 +6505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>18</v>
       </c>
@@ -5605,7 +6513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>402</v>
       </c>
@@ -5613,7 +6521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>18</v>
       </c>
@@ -5621,7 +6529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>403</v>
       </c>
@@ -5629,7 +6537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>404</v>
       </c>
@@ -5637,7 +6545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>405</v>
       </c>
@@ -5645,7 +6553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>406</v>
       </c>
@@ -5653,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>407</v>
       </c>
@@ -5661,7 +6569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>408</v>
       </c>
@@ -5669,7 +6577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>409</v>
       </c>
@@ -5677,7 +6585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>410</v>
       </c>
@@ -5685,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>18</v>
       </c>
@@ -5693,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>8</v>
       </c>
@@ -5701,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>411</v>
       </c>
@@ -5709,7 +6617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>412</v>
       </c>
@@ -5717,7 +6625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>413</v>
       </c>
@@ -5725,7 +6633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>414</v>
       </c>
@@ -5733,7 +6641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>415</v>
       </c>
@@ -5741,7 +6649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>416</v>
       </c>
@@ -5749,7 +6657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>417</v>
       </c>
@@ -5757,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>418</v>
       </c>
@@ -5765,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>419</v>
       </c>
@@ -5773,7 +6681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>420</v>
       </c>
@@ -5781,7 +6689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>14</v>
       </c>
@@ -5789,7 +6697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>8</v>
       </c>
@@ -5797,7 +6705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>421</v>
       </c>
@@ -5805,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>422</v>
       </c>
@@ -5813,7 +6721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>423</v>
       </c>
@@ -5821,7 +6729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>5</v>
       </c>
@@ -5829,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>424</v>
       </c>
@@ -5837,7 +6745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>425</v>
       </c>
@@ -5845,7 +6753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>426</v>
       </c>
@@ -5853,7 +6761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -5861,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>427</v>
       </c>
@@ -5869,7 +6777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>428</v>
       </c>
@@ -5877,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>429</v>
       </c>
@@ -5885,7 +6793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>430</v>
       </c>
@@ -5893,7 +6801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>431</v>
       </c>
@@ -5901,7 +6809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>432</v>
       </c>
@@ -5909,7 +6817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>433</v>
       </c>
@@ -5917,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>434</v>
       </c>
@@ -5925,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>435</v>
       </c>
@@ -5933,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>436</v>
       </c>
@@ -5941,7 +6849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>14</v>
       </c>
@@ -5949,7 +6857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>437</v>
       </c>
@@ -5957,7 +6865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>438</v>
       </c>
@@ -5965,7 +6873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>439</v>
       </c>
@@ -5973,7 +6881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>440</v>
       </c>
@@ -5981,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>441</v>
       </c>
@@ -5989,7 +6897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>442</v>
       </c>
@@ -5997,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>443</v>
       </c>
@@ -6005,7 +6913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>444</v>
       </c>
@@ -6013,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>445</v>
       </c>
@@ -6021,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>446</v>
       </c>
@@ -6029,7 +6937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>447</v>
       </c>
@@ -6037,7 +6945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>448</v>
       </c>
@@ -6045,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>449</v>
       </c>
@@ -6053,7 +6961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>450</v>
       </c>
@@ -6061,7 +6969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>451</v>
       </c>
@@ -6069,7 +6977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>56</v>
       </c>
@@ -6077,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>452</v>
       </c>
@@ -6085,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>453</v>
       </c>
@@ -6093,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>454</v>
       </c>
@@ -6101,7 +7009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>455</v>
       </c>
@@ -6109,7 +7017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>456</v>
       </c>
@@ -6117,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>457</v>
       </c>
@@ -6125,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>458</v>
       </c>
@@ -6133,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>8</v>
       </c>
@@ -6141,7 +7049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>459</v>
       </c>
@@ -6149,7 +7057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>460</v>
       </c>
@@ -6157,7 +7065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>461</v>
       </c>
@@ -6165,7 +7073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>462</v>
       </c>
@@ -6173,7 +7081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>463</v>
       </c>
@@ -6181,7 +7089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>8</v>
       </c>
@@ -6189,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>464</v>
       </c>
@@ -6197,7 +7105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>465</v>
       </c>
@@ -6205,7 +7113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>466</v>
       </c>
@@ -6213,7 +7121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>467</v>
       </c>
@@ -6221,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>468</v>
       </c>
@@ -6229,7 +7137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>469</v>
       </c>
@@ -6237,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>470</v>
       </c>
@@ -6245,7 +7153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>8</v>
       </c>
@@ -6253,7 +7161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>471</v>
       </c>
@@ -6261,7 +7169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>472</v>
       </c>
@@ -6269,7 +7177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>473</v>
       </c>
@@ -6277,7 +7185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>18</v>
       </c>
@@ -6285,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>474</v>
       </c>
@@ -6293,7 +7201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>475</v>
       </c>
@@ -6301,7 +7209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>476</v>
       </c>
@@ -6309,7 +7217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>477</v>
       </c>
@@ -6317,7 +7225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>18</v>
       </c>
@@ -6325,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>8</v>
       </c>
@@ -6333,7 +7241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>478</v>
       </c>
@@ -6341,7 +7249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>291</v>
       </c>
@@ -6349,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>479</v>
       </c>
@@ -6357,7 +7265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>480</v>
       </c>
@@ -6365,7 +7273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>481</v>
       </c>
@@ -6373,7 +7281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>482</v>
       </c>
@@ -6381,7 +7289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>483</v>
       </c>
@@ -6389,7 +7297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>484</v>
       </c>
@@ -6397,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>485</v>
       </c>
@@ -6405,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>486</v>
       </c>
@@ -6413,7 +7321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>18</v>
       </c>
@@ -6421,7 +7329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>40</v>
       </c>
@@ -6429,7 +7337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>487</v>
       </c>
@@ -6437,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>488</v>
       </c>
@@ -6445,7 +7353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>489</v>
       </c>
@@ -6453,7 +7361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>490</v>
       </c>
@@ -6461,7 +7369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>491</v>
       </c>
@@ -6469,7 +7377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>492</v>
       </c>
@@ -6477,7 +7385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>493</v>
       </c>
@@ -6485,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>494</v>
       </c>
@@ -6493,7 +7401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>495</v>
       </c>
@@ -6501,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>496</v>
       </c>
@@ -6509,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>497</v>
       </c>
@@ -6517,7 +7425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>498</v>
       </c>
@@ -6525,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>9</v>
       </c>
@@ -6533,7 +7441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>499</v>
       </c>
@@ -6541,7 +7449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>500</v>
       </c>
@@ -6549,7 +7457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>8</v>
       </c>
@@ -6557,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>501</v>
       </c>
@@ -6565,7 +7473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>56</v>
       </c>
@@ -6573,7 +7481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>40</v>
       </c>
@@ -6581,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>502</v>
       </c>
@@ -6589,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>503</v>
       </c>
@@ -6597,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>504</v>
       </c>
@@ -6605,7 +7513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>505</v>
       </c>
@@ -6613,7 +7521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>506</v>
       </c>
@@ -6621,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>507</v>
       </c>
@@ -6629,7 +7537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>508</v>
       </c>
@@ -6637,7 +7545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>509</v>
       </c>
@@ -6645,7 +7553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>510</v>
       </c>
@@ -6653,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>511</v>
       </c>
@@ -6661,7 +7569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>512</v>
       </c>
@@ -6669,7 +7577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>8</v>
       </c>
@@ -6677,7 +7585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>513</v>
       </c>
@@ -6685,7 +7593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>514</v>
       </c>
@@ -6693,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>515</v>
       </c>
@@ -6701,7 +7609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>8</v>
       </c>
@@ -6709,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>516</v>
       </c>
@@ -6717,7 +7625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>8</v>
       </c>
@@ -6725,7 +7633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>291</v>
       </c>
@@ -6733,7 +7641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>517</v>
       </c>
@@ -6741,7 +7649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>18</v>
       </c>
@@ -6749,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>518</v>
       </c>
@@ -6757,7 +7665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>519</v>
       </c>
@@ -6765,7 +7673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>520</v>
       </c>
@@ -6773,7 +7681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>521</v>
       </c>
@@ -6781,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>522</v>
       </c>
@@ -6789,7 +7697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>523</v>
       </c>
@@ -6797,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>524</v>
       </c>
@@ -6805,7 +7713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>525</v>
       </c>
@@ -6813,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>41</v>
       </c>
@@ -6821,7 +7729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>526</v>
       </c>
@@ -6829,7 +7737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>527</v>
       </c>
@@ -6837,7 +7745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>14</v>
       </c>
@@ -6845,7 +7753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>528</v>
       </c>
@@ -6853,7 +7761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>529</v>
       </c>
@@ -6861,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>530</v>
       </c>
@@ -6869,7 +7777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>182</v>
       </c>
@@ -6877,7 +7785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>531</v>
       </c>
@@ -6885,7 +7793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>9</v>
       </c>
@@ -6893,7 +7801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>532</v>
       </c>
@@ -6901,7 +7809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>533</v>
       </c>
@@ -6909,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>534</v>
       </c>
@@ -6917,7 +7825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>18</v>
       </c>
@@ -6925,7 +7833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>535</v>
       </c>
@@ -6933,7 +7841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>56</v>
       </c>
@@ -6941,7 +7849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>536</v>
       </c>
@@ -6949,7 +7857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>8</v>
       </c>
@@ -6957,7 +7865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>18</v>
       </c>
@@ -6965,7 +7873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>537</v>
       </c>
@@ -6973,7 +7881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>538</v>
       </c>
@@ -6981,7 +7889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>539</v>
       </c>
@@ -6989,7 +7897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>540</v>
       </c>
@@ -6997,7 +7905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>541</v>
       </c>
@@ -7005,7 +7913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>542</v>
       </c>
@@ -7013,7 +7921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>543</v>
       </c>
@@ -7021,7 +7929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>544</v>
       </c>
@@ -7029,7 +7937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>545</v>
       </c>
@@ -7037,7 +7945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>546</v>
       </c>
@@ -7045,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>8</v>
       </c>
@@ -7053,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>547</v>
       </c>
@@ -7061,7 +7969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>548</v>
       </c>
@@ -7069,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>549</v>
       </c>
@@ -7077,7 +7985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>550</v>
       </c>
@@ -7085,7 +7993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>551</v>
       </c>
@@ -7093,7 +8001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>552</v>
       </c>
@@ -7101,7 +8009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>553</v>
       </c>
@@ -7109,7 +8017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>554</v>
       </c>
@@ -7117,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>555</v>
       </c>
@@ -7125,7 +8033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>556</v>
       </c>
@@ -7133,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>18</v>
       </c>
@@ -7141,7 +8049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>557</v>
       </c>
@@ -7149,7 +8057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>558</v>
       </c>
@@ -7157,7 +8065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>559</v>
       </c>
@@ -7165,7 +8073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>560</v>
       </c>
@@ -7173,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>561</v>
       </c>
@@ -7181,7 +8089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>562</v>
       </c>
@@ -7189,7 +8097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>563</v>
       </c>
@@ -7197,7 +8105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>564</v>
       </c>
@@ -7205,7 +8113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>565</v>
       </c>
@@ -7213,7 +8121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>566</v>
       </c>
@@ -7221,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>567</v>
       </c>
@@ -7229,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>18</v>
       </c>
@@ -7237,7 +8145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>568</v>
       </c>
@@ -7245,7 +8153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>569</v>
       </c>
@@ -7253,7 +8161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>570</v>
       </c>
@@ -7261,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>66</v>
       </c>
@@ -7269,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>571</v>
       </c>
@@ -7277,7 +8185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>572</v>
       </c>
@@ -7285,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>573</v>
       </c>
@@ -7293,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>574</v>
       </c>
@@ -7301,7 +8209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>575</v>
       </c>
@@ -7309,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>576</v>
       </c>
@@ -7317,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>577</v>
       </c>
@@ -7325,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>578</v>
       </c>
@@ -7333,7 +8241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>579</v>
       </c>
@@ -7341,7 +8249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>580</v>
       </c>
@@ -7349,7 +8257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>581</v>
       </c>
@@ -7357,7 +8265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>582</v>
       </c>
@@ -7365,7 +8273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>583</v>
       </c>
@@ -7373,7 +8281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>584</v>
       </c>
@@ -7381,7 +8289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>585</v>
       </c>
@@ -7389,7 +8297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>586</v>
       </c>
@@ -7397,7 +8305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>587</v>
       </c>
@@ -7405,7 +8313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>8</v>
       </c>
@@ -7413,7 +8321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>588</v>
       </c>
@@ -7421,7 +8329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>589</v>
       </c>
@@ -7429,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>8</v>
       </c>
@@ -7437,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>590</v>
       </c>
@@ -7445,7 +8353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>18</v>
       </c>
@@ -7453,7 +8361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>591</v>
       </c>
@@ -7461,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>592</v>
       </c>
@@ -7469,7 +8377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>593</v>
       </c>
@@ -7477,7 +8385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>18</v>
       </c>
@@ -7485,7 +8393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>594</v>
       </c>
@@ -7493,7 +8401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>595</v>
       </c>
@@ -7501,7 +8409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>596</v>
       </c>
@@ -7509,7 +8417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>597</v>
       </c>
@@ -7517,7 +8425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>598</v>
       </c>
@@ -7525,7 +8433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>599</v>
       </c>
@@ -7533,7 +8441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>600</v>
       </c>
@@ -7541,7 +8449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>601</v>
       </c>
@@ -7549,7 +8457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>602</v>
       </c>
@@ -7557,7 +8465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>8</v>
       </c>
@@ -7565,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>603</v>
       </c>
@@ -7573,7 +8481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>604</v>
       </c>
@@ -7581,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>605</v>
       </c>
@@ -7589,7 +8497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>41</v>
       </c>
@@ -7597,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>606</v>
       </c>
@@ -7605,7 +8513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>607</v>
       </c>
@@ -7613,7 +8521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>608</v>
       </c>
@@ -7621,7 +8529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>609</v>
       </c>
@@ -7629,7 +8537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>610</v>
       </c>
@@ -7637,7 +8545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>611</v>
       </c>
@@ -7645,7 +8553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>612</v>
       </c>
@@ -7653,7 +8561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>613</v>
       </c>
@@ -7661,7 +8569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>614</v>
       </c>
@@ -7669,7 +8577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>615</v>
       </c>
@@ -7677,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>616</v>
       </c>
@@ -7685,7 +8593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>8</v>
       </c>
@@ -7693,7 +8601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>617</v>
       </c>
@@ -7701,7 +8609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>618</v>
       </c>
@@ -7709,7 +8617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>619</v>
       </c>
@@ -7717,7 +8625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>620</v>
       </c>
@@ -7725,7 +8633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>621</v>
       </c>
@@ -7733,7 +8641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>622</v>
       </c>
@@ -7741,7 +8649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>623</v>
       </c>
@@ -7749,7 +8657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>624</v>
       </c>
@@ -7757,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>625</v>
       </c>

--- a/era uma vez em hollywood.xlsx
+++ b/era uma vez em hollywood.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitor Bandeira\Desktop\Ciência dos dados\Projeto2\p2_datascience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B05386-6663-45C1-8E6D-B92A91A09D3E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC855B1-8E9C-4075-973D-794EDD6E6C4A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2633,15 +2633,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2649,2403 +2653,3300 @@
         <v>627</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>36</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>18</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>39</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>40</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>14</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>47</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>48</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>49</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>50</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>51</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>52</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>53</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>54</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>18</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>55</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>56</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>57</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>58</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>59</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>60</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>61</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>62</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>63</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>64</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>65</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>66</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>67</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>68</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>69</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>70</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>41</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>71</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>72</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>73</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>74</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>75</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>76</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>77</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>78</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>79</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>80</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>81</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>82</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>83</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>84</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>18</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>85</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>86</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>87</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>88</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>89</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>90</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>91</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>92</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>18</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>93</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>94</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>95</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>96</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>97</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>98</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>14</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>99</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>8</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>8</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>100</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>101</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>102</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>103</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>104</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>105</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>106</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>107</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>108</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>101</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>109</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>110</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>111</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>112</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>113</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>114</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>115</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>8</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>8</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>116</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>117</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>101</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>118</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>119</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>120</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>121</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>122</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>40</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>123</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>124</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>125</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>126</v>
       </c>
       <c r="B151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>127</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>128</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>129</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>130</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>131</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>132</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>8</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>8</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>133</v>
       </c>
       <c r="B160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>134</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>135</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>136</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>137</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>14</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>138</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>139</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>140</v>
       </c>
       <c r="B168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>141</v>
       </c>
       <c r="B169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>142</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>143</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>144</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>145</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>146</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>147</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>148</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>149</v>
       </c>
       <c r="B177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>150</v>
       </c>
       <c r="B178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>151</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>152</v>
       </c>
       <c r="B180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>153</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>154</v>
       </c>
       <c r="B182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>155</v>
       </c>
       <c r="B183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>156</v>
       </c>
       <c r="B184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>157</v>
       </c>
       <c r="B185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>158</v>
       </c>
       <c r="B186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>159</v>
       </c>
       <c r="B187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>160</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>161</v>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>8</v>
       </c>
       <c r="B190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>5</v>
       </c>
       <c r="B191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>18</v>
       </c>
       <c r="B192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>162</v>
       </c>
       <c r="B193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>163</v>
       </c>
       <c r="B194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>8</v>
       </c>
       <c r="B195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>164</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>165</v>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>66</v>
       </c>
       <c r="B198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>166</v>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>167</v>
       </c>
       <c r="B200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>168</v>
       </c>
       <c r="B201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>169</v>
       </c>
       <c r="B202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>170</v>
       </c>
       <c r="B203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>171</v>
       </c>
       <c r="B204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>172</v>
       </c>
       <c r="B205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>173</v>
       </c>
       <c r="B206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>174</v>
       </c>
       <c r="B207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>175</v>
       </c>
       <c r="B208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>8</v>
       </c>
       <c r="B209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>18</v>
       </c>
       <c r="B210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>176</v>
       </c>
       <c r="B211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>177</v>
       </c>
       <c r="B212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>178</v>
       </c>
       <c r="B213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>179</v>
       </c>
       <c r="B214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>180</v>
       </c>
       <c r="B215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>181</v>
       </c>
       <c r="B216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>182</v>
       </c>
       <c r="B217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>183</v>
       </c>
       <c r="B218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>184</v>
       </c>
       <c r="B219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>185</v>
       </c>
       <c r="B220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>186</v>
       </c>
       <c r="B221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>187</v>
       </c>
       <c r="B222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>18</v>
       </c>
       <c r="B223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>182</v>
       </c>
       <c r="B224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>188</v>
       </c>
       <c r="B225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>189</v>
       </c>
       <c r="B226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>18</v>
       </c>
       <c r="B227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>190</v>
       </c>
       <c r="B228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>8</v>
       </c>
       <c r="B229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>191</v>
       </c>
       <c r="B230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>192</v>
       </c>
       <c r="B231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>193</v>
       </c>
       <c r="B232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>194</v>
       </c>
       <c r="B233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>195</v>
       </c>
       <c r="B234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>196</v>
       </c>
       <c r="B235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>197</v>
       </c>
       <c r="B236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>198</v>
       </c>
       <c r="B237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>199</v>
       </c>
       <c r="B238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>200</v>
       </c>
       <c r="B239">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>201</v>
       </c>
       <c r="B240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>202</v>
       </c>
       <c r="B241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>203</v>
       </c>
       <c r="B242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>204</v>
       </c>
       <c r="B243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>205</v>
       </c>
       <c r="B244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>206</v>
       </c>
       <c r="B245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>207</v>
       </c>
       <c r="B246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>208</v>
       </c>
       <c r="B247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>209</v>
       </c>
       <c r="B248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>5</v>
       </c>
       <c r="B249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>210</v>
       </c>
       <c r="B250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>211</v>
       </c>
       <c r="B251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>212</v>
       </c>
       <c r="B252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>213</v>
       </c>
       <c r="B253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>214</v>
       </c>
       <c r="B254">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>215</v>
       </c>
       <c r="B255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>216</v>
       </c>
       <c r="B256">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>217</v>
       </c>
       <c r="B257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>218</v>
       </c>
       <c r="B258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>219</v>
       </c>
       <c r="B259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>220</v>
       </c>
       <c r="B260">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>8</v>
       </c>
       <c r="B261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>221</v>
       </c>
       <c r="B262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>222</v>
       </c>
       <c r="B263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>223</v>
       </c>
       <c r="B264">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>224</v>
       </c>
       <c r="B265">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>225</v>
       </c>
       <c r="B266">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>226</v>
       </c>
       <c r="B267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>227</v>
       </c>
       <c r="B268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>228</v>
       </c>
       <c r="B269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>229</v>
       </c>
       <c r="B270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>230</v>
       </c>
       <c r="B271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>18</v>
       </c>
       <c r="B272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>231</v>
       </c>
       <c r="B273">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>8</v>
       </c>
       <c r="B274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>232</v>
       </c>
       <c r="B275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>233</v>
       </c>
       <c r="B276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>234</v>
       </c>
       <c r="B277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>235</v>
       </c>
       <c r="B278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>236</v>
       </c>
       <c r="B279">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>237</v>
       </c>
       <c r="B280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>238</v>
       </c>
       <c r="B281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>18</v>
       </c>
       <c r="B282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>239</v>
       </c>
       <c r="B283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>240</v>
       </c>
       <c r="B284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>241</v>
       </c>
       <c r="B285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>8</v>
       </c>
       <c r="B286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>242</v>
       </c>
       <c r="B287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>243</v>
       </c>
       <c r="B288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>244</v>
       </c>
       <c r="B289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>8</v>
       </c>
       <c r="B290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>245</v>
       </c>
       <c r="B291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>246</v>
       </c>
       <c r="B292">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>30</v>
       </c>
       <c r="B293">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>247</v>
       </c>
       <c r="B294">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>248</v>
       </c>
       <c r="B295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>249</v>
       </c>
       <c r="B296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>8</v>
       </c>
       <c r="B297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>250</v>
       </c>
       <c r="B298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>18</v>
       </c>
       <c r="B299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>167</v>
       </c>
       <c r="B300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>251</v>
       </c>
       <c r="B301">
+        <v>1</v>
+      </c>
+      <c r="C301">
         <v>1</v>
       </c>
     </row>

--- a/era uma vez em hollywood.xlsx
+++ b/era uma vez em hollywood.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitor Bandeira\Desktop\Ciência dos dados\Projeto2\p2_datascience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC855B1-8E9C-4075-973D-794EDD6E6C4A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D94147-0B68-43FC-9261-E765C32A6ADD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2234,7 +2234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2244,6 +2244,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2286,7 +2294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2295,6 +2303,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2633,10 +2642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C301"/>
+  <dimension ref="A1:D301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2645,7 +2654,7 @@
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2653,3300 +2662,2404 @@
         <v>627</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
       <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
       <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
       <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
       <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>36</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
       <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>18</v>
       </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>39</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
       <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>40</v>
       </c>
       <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
       <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
       <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
       <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>14</v>
       </c>
       <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>47</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>48</v>
       </c>
       <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>49</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>50</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>51</v>
       </c>
       <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>52</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>53</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>54</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>18</v>
       </c>
       <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>55</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
       <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>56</v>
       </c>
       <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>57</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>58</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>59</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>60</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>61</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>62</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>63</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
       <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>64</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
       <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>65</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>66</v>
       </c>
       <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>67</v>
       </c>
       <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>68</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>69</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>70</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>41</v>
       </c>
       <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>71</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>72</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>73</v>
       </c>
       <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>74</v>
       </c>
       <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>75</v>
       </c>
       <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>76</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>77</v>
       </c>
       <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>78</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>79</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
       <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>80</v>
       </c>
       <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>81</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>82</v>
       </c>
       <c r="B97">
-        <v>1</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>83</v>
       </c>
       <c r="B98">
-        <v>1</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>84</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>18</v>
       </c>
       <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>85</v>
       </c>
       <c r="B101">
-        <v>1</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>86</v>
       </c>
       <c r="B102">
-        <v>1</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>87</v>
       </c>
       <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>88</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>89</v>
       </c>
       <c r="B105">
-        <v>1</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>90</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>91</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>92</v>
       </c>
       <c r="B108">
-        <v>0</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>18</v>
       </c>
       <c r="B109">
-        <v>0</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>93</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>94</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>95</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>96</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>97</v>
       </c>
       <c r="B114">
-        <v>1</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>98</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>14</v>
       </c>
       <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>99</v>
       </c>
       <c r="B117">
-        <v>0</v>
-      </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>8</v>
       </c>
       <c r="B118">
-        <v>0</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>8</v>
       </c>
       <c r="B119">
-        <v>0</v>
-      </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>100</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>101</v>
       </c>
       <c r="B121">
-        <v>0</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>102</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>103</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>104</v>
       </c>
       <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>105</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>106</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>107</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>108</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>101</v>
       </c>
       <c r="B129">
-        <v>0</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>109</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>110</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>111</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>112</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>113</v>
       </c>
       <c r="B134">
-        <v>1</v>
-      </c>
-      <c r="C134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>114</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>115</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>8</v>
       </c>
       <c r="B137">
-        <v>0</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>8</v>
       </c>
       <c r="B138">
-        <v>0</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>116</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>117</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>101</v>
       </c>
       <c r="B141">
-        <v>0</v>
-      </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>118</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>119</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>120</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
-      <c r="C144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>121</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>122</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>40</v>
       </c>
       <c r="B147">
-        <v>0</v>
-      </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>123</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>124</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>125</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>126</v>
       </c>
       <c r="B151">
         <v>1</v>
       </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>127</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>128</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
-      <c r="C153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>129</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
-      <c r="C154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>130</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>131</v>
       </c>
       <c r="B156">
-        <v>1</v>
-      </c>
-      <c r="C156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>132</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
-      <c r="C157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>8</v>
       </c>
       <c r="B158">
-        <v>0</v>
-      </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>8</v>
       </c>
       <c r="B159">
-        <v>0</v>
-      </c>
-      <c r="C159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>133</v>
       </c>
       <c r="B160">
-        <v>1</v>
-      </c>
-      <c r="C160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>134</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
-      <c r="C161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>135</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
-      <c r="C162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>136</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
-      <c r="C163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>137</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
-      <c r="C164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>14</v>
       </c>
       <c r="B165">
-        <v>0</v>
-      </c>
-      <c r="C165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>138</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
-      <c r="C166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>139</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
-      <c r="C167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>140</v>
       </c>
       <c r="B168">
         <v>1</v>
       </c>
-      <c r="C168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>141</v>
       </c>
       <c r="B169">
         <v>0</v>
       </c>
-      <c r="C169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>142</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
-      <c r="C170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>143</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
-      <c r="C171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>144</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
-      <c r="C172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>145</v>
       </c>
       <c r="B173">
-        <v>0</v>
-      </c>
-      <c r="C173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>146</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
-      <c r="C174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>147</v>
       </c>
       <c r="B175">
-        <v>0</v>
-      </c>
-      <c r="C175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>148</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
-      <c r="C176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>149</v>
       </c>
       <c r="B177">
         <v>0</v>
       </c>
-      <c r="C177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>150</v>
       </c>
       <c r="B178">
-        <v>0</v>
-      </c>
-      <c r="C178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>151</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
-      <c r="C179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>152</v>
       </c>
       <c r="B180">
         <v>0</v>
       </c>
-      <c r="C180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>153</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
-      <c r="C181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>154</v>
       </c>
       <c r="B182">
-        <v>0</v>
-      </c>
-      <c r="C182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>155</v>
       </c>
       <c r="B183">
         <v>1</v>
       </c>
-      <c r="C183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>156</v>
       </c>
       <c r="B184">
         <v>0</v>
       </c>
-      <c r="C184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>157</v>
       </c>
       <c r="B185">
-        <v>0</v>
-      </c>
-      <c r="C185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>158</v>
       </c>
       <c r="B186">
-        <v>0</v>
-      </c>
-      <c r="C186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>159</v>
       </c>
       <c r="B187">
         <v>0</v>
       </c>
-      <c r="C187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>160</v>
       </c>
       <c r="B188">
-        <v>1</v>
-      </c>
-      <c r="C188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>161</v>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
-      <c r="C189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>8</v>
       </c>
       <c r="B190">
-        <v>0</v>
-      </c>
-      <c r="C190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>5</v>
       </c>
       <c r="B191">
-        <v>0</v>
-      </c>
-      <c r="C191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>18</v>
       </c>
       <c r="B192">
-        <v>0</v>
-      </c>
-      <c r="C192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>162</v>
       </c>
       <c r="B193">
-        <v>1</v>
-      </c>
-      <c r="C193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>163</v>
       </c>
       <c r="B194">
         <v>0</v>
       </c>
-      <c r="C194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>8</v>
       </c>
       <c r="B195">
-        <v>0</v>
-      </c>
-      <c r="C195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>164</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
-      <c r="C196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>165</v>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
-      <c r="C197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>66</v>
       </c>
       <c r="B198">
-        <v>0</v>
-      </c>
-      <c r="C198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>166</v>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
-      <c r="C199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>167</v>
       </c>
       <c r="B200">
-        <v>0</v>
-      </c>
-      <c r="C200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>168</v>
       </c>
       <c r="B201">
         <v>1</v>
       </c>
-      <c r="C201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>169</v>
       </c>
       <c r="B202">
         <v>0</v>
       </c>
-      <c r="C202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>170</v>
       </c>
       <c r="B203">
-        <v>0</v>
-      </c>
-      <c r="C203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>171</v>
       </c>
       <c r="B204">
         <v>1</v>
       </c>
-      <c r="C204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>172</v>
       </c>
       <c r="B205">
         <v>1</v>
       </c>
-      <c r="C205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>173</v>
       </c>
       <c r="B206">
         <v>0</v>
       </c>
-      <c r="C206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>174</v>
       </c>
       <c r="B207">
         <v>1</v>
       </c>
-      <c r="C207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>175</v>
       </c>
       <c r="B208">
         <v>0</v>
       </c>
-      <c r="C208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>8</v>
       </c>
       <c r="B209">
-        <v>0</v>
-      </c>
-      <c r="C209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>18</v>
       </c>
       <c r="B210">
-        <v>0</v>
-      </c>
-      <c r="C210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>176</v>
       </c>
       <c r="B211">
         <v>1</v>
       </c>
-      <c r="C211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>177</v>
       </c>
       <c r="B212">
         <v>0</v>
       </c>
-      <c r="C212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>178</v>
       </c>
       <c r="B213">
-        <v>0</v>
-      </c>
-      <c r="C213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>179</v>
       </c>
       <c r="B214">
         <v>0</v>
       </c>
-      <c r="C214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>180</v>
       </c>
       <c r="B215">
-        <v>1</v>
-      </c>
-      <c r="C215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>181</v>
       </c>
       <c r="B216">
-        <v>0</v>
-      </c>
-      <c r="C216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>182</v>
       </c>
       <c r="B217">
-        <v>0</v>
-      </c>
-      <c r="C217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>183</v>
       </c>
       <c r="B218">
         <v>1</v>
       </c>
-      <c r="C218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>184</v>
       </c>
       <c r="B219">
         <v>0</v>
       </c>
-      <c r="C219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>185</v>
       </c>
       <c r="B220">
-        <v>1</v>
-      </c>
-      <c r="C220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>186</v>
       </c>
       <c r="B221">
         <v>0</v>
       </c>
-      <c r="C221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>187</v>
       </c>
       <c r="B222">
         <v>0</v>
       </c>
-      <c r="C222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>18</v>
       </c>
       <c r="B223">
-        <v>0</v>
-      </c>
-      <c r="C223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>182</v>
       </c>
       <c r="B224">
-        <v>0</v>
-      </c>
-      <c r="C224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>188</v>
       </c>
       <c r="B225">
         <v>1</v>
       </c>
-      <c r="C225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>189</v>
       </c>
       <c r="B226">
         <v>1</v>
       </c>
-      <c r="C226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>18</v>
       </c>
       <c r="B227">
-        <v>0</v>
-      </c>
-      <c r="C227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>190</v>
       </c>
       <c r="B228">
         <v>0</v>
       </c>
-      <c r="C228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>8</v>
       </c>
       <c r="B229">
-        <v>0</v>
-      </c>
-      <c r="C229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>191</v>
       </c>
       <c r="B230">
         <v>0</v>
       </c>
-      <c r="C230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>192</v>
       </c>
       <c r="B231">
         <v>1</v>
       </c>
-      <c r="C231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>193</v>
       </c>
       <c r="B232">
         <v>0</v>
       </c>
-      <c r="C232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>194</v>
       </c>
       <c r="B233">
-        <v>1</v>
-      </c>
-      <c r="C233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>195</v>
       </c>
       <c r="B234">
         <v>0</v>
       </c>
-      <c r="C234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>196</v>
       </c>
       <c r="B235">
         <v>1</v>
       </c>
-      <c r="C235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>197</v>
       </c>
       <c r="B236">
         <v>0</v>
       </c>
-      <c r="C236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>198</v>
       </c>
       <c r="B237">
         <v>0</v>
       </c>
-      <c r="C237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>199</v>
       </c>
       <c r="B238">
         <v>0</v>
       </c>
-      <c r="C238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>200</v>
       </c>
       <c r="B239">
         <v>1</v>
       </c>
-      <c r="C239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>201</v>
       </c>
       <c r="B240">
         <v>1</v>
       </c>
-      <c r="C240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>202</v>
       </c>
       <c r="B241">
         <v>0</v>
       </c>
-      <c r="C241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>203</v>
       </c>
       <c r="B242">
         <v>0</v>
       </c>
-      <c r="C242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>204</v>
       </c>
       <c r="B243">
         <v>0</v>
       </c>
-      <c r="C243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>205</v>
       </c>
       <c r="B244">
-        <v>1</v>
-      </c>
-      <c r="C244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>206</v>
       </c>
       <c r="B245">
-        <v>1</v>
-      </c>
-      <c r="C245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>207</v>
       </c>
       <c r="B246">
         <v>1</v>
       </c>
-      <c r="C246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>208</v>
       </c>
       <c r="B247">
         <v>1</v>
       </c>
-      <c r="C247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>209</v>
       </c>
       <c r="B248">
-        <v>0</v>
-      </c>
-      <c r="C248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>5</v>
       </c>
       <c r="B249">
-        <v>0</v>
-      </c>
-      <c r="C249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>210</v>
       </c>
       <c r="B250">
-        <v>1</v>
-      </c>
-      <c r="C250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>211</v>
       </c>
       <c r="B251">
         <v>0</v>
       </c>
-      <c r="C251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>212</v>
       </c>
       <c r="B252">
         <v>0</v>
       </c>
-      <c r="C252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>213</v>
       </c>
       <c r="B253">
-        <v>1</v>
-      </c>
-      <c r="C253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>214</v>
       </c>
       <c r="B254">
-        <v>1</v>
-      </c>
-      <c r="C254">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>215</v>
       </c>
       <c r="B255">
         <v>0</v>
       </c>
-      <c r="C255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>216</v>
       </c>
       <c r="B256">
-        <v>1</v>
-      </c>
-      <c r="C256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>217</v>
       </c>
       <c r="B257">
         <v>0</v>
       </c>
-      <c r="C257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>218</v>
       </c>
       <c r="B258">
         <v>0</v>
       </c>
-      <c r="C258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>219</v>
       </c>
       <c r="B259">
         <v>0</v>
       </c>
-      <c r="C259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>220</v>
       </c>
       <c r="B260">
-        <v>1</v>
-      </c>
-      <c r="C260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>8</v>
       </c>
       <c r="B261">
-        <v>0</v>
-      </c>
-      <c r="C261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>221</v>
       </c>
       <c r="B262">
         <v>1</v>
       </c>
-      <c r="C262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>222</v>
       </c>
       <c r="B263">
         <v>0</v>
       </c>
-      <c r="C263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>223</v>
       </c>
       <c r="B264">
         <v>1</v>
       </c>
-      <c r="C264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>224</v>
       </c>
       <c r="B265">
         <v>1</v>
       </c>
-      <c r="C265">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>225</v>
       </c>
       <c r="B266">
         <v>1</v>
       </c>
-      <c r="C266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>226</v>
       </c>
       <c r="B267">
         <v>0</v>
       </c>
-      <c r="C267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>227</v>
       </c>
       <c r="B268">
         <v>1</v>
       </c>
-      <c r="C268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>228</v>
       </c>
       <c r="B269">
         <v>0</v>
       </c>
-      <c r="C269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>229</v>
       </c>
       <c r="B270">
         <v>0</v>
       </c>
-      <c r="C270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>230</v>
       </c>
       <c r="B271">
         <v>0</v>
       </c>
-      <c r="C271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>18</v>
       </c>
       <c r="B272">
-        <v>0</v>
-      </c>
-      <c r="C272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>231</v>
       </c>
       <c r="B273">
         <v>1</v>
       </c>
-      <c r="C273">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>8</v>
       </c>
       <c r="B274">
-        <v>0</v>
-      </c>
-      <c r="C274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>232</v>
       </c>
       <c r="B275">
         <v>0</v>
       </c>
-      <c r="C275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>233</v>
       </c>
       <c r="B276">
         <v>0</v>
       </c>
-      <c r="C276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>234</v>
       </c>
       <c r="B277">
         <v>0</v>
       </c>
-      <c r="C277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>235</v>
       </c>
       <c r="B278">
         <v>0</v>
       </c>
-      <c r="C278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>236</v>
       </c>
       <c r="B279">
-        <v>1</v>
-      </c>
-      <c r="C279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>237</v>
       </c>
       <c r="B280">
         <v>0</v>
       </c>
-      <c r="C280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>238</v>
       </c>
       <c r="B281">
         <v>0</v>
       </c>
-      <c r="C281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>18</v>
       </c>
       <c r="B282">
-        <v>0</v>
-      </c>
-      <c r="C282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>239</v>
       </c>
       <c r="B283">
-        <v>0</v>
-      </c>
-      <c r="C283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>240</v>
       </c>
       <c r="B284">
         <v>0</v>
       </c>
-      <c r="C284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>241</v>
       </c>
       <c r="B285">
         <v>1</v>
       </c>
-      <c r="C285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>8</v>
       </c>
       <c r="B286">
-        <v>0</v>
-      </c>
-      <c r="C286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>242</v>
       </c>
       <c r="B287">
         <v>0</v>
       </c>
-      <c r="C287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>243</v>
       </c>
       <c r="B288">
         <v>0</v>
       </c>
-      <c r="C288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>244</v>
       </c>
       <c r="B289">
         <v>0</v>
       </c>
-      <c r="C289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>8</v>
       </c>
       <c r="B290">
-        <v>0</v>
-      </c>
-      <c r="C290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>245</v>
       </c>
       <c r="B291">
         <v>1</v>
       </c>
-      <c r="C291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>246</v>
       </c>
       <c r="B292">
         <v>1</v>
       </c>
-      <c r="C292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>30</v>
       </c>
       <c r="B293">
-        <v>1</v>
-      </c>
-      <c r="C293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>247</v>
       </c>
       <c r="B294">
-        <v>1</v>
-      </c>
-      <c r="C294">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>248</v>
       </c>
       <c r="B295">
         <v>0</v>
       </c>
-      <c r="C295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>249</v>
       </c>
       <c r="B296">
         <v>1</v>
       </c>
-      <c r="C296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>8</v>
       </c>
       <c r="B297">
-        <v>0</v>
-      </c>
-      <c r="C297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>250</v>
       </c>
       <c r="B298">
         <v>0</v>
       </c>
-      <c r="C298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>18</v>
       </c>
       <c r="B299">
-        <v>0</v>
-      </c>
-      <c r="C299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>167</v>
       </c>
       <c r="B300">
-        <v>0</v>
-      </c>
-      <c r="C300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>251</v>
       </c>
       <c r="B301">
-        <v>1</v>
-      </c>
-      <c r="C301">
         <v>1</v>
       </c>
     </row>

--- a/era uma vez em hollywood.xlsx
+++ b/era uma vez em hollywood.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitor Bandeira\Desktop\Ciência dos dados\Projeto2\p2_datascience\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizbernardino/Documents/p2_datascience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC855B1-8E9C-4075-973D-794EDD6E6C4A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30189AFE-6CC8-4E4C-AF31-DDD5475BEDF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2224,10 +2224,10 @@
     <t>rt @rafashins: era uma vez em hollywood... um filme bom e ruim ao mesmo tempo. não sai feliz e nem triste do cinema, bagulho estranho. uaeh…</t>
   </si>
   <si>
-    <t>classificação</t>
-  </si>
-  <si>
     <t>Classificação</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -2633,27 +2633,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C301"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A276" zoomScale="90" workbookViewId="0">
+      <selection activeCell="I300" sqref="I300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="47.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>48</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>50</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>52</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>53</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>56</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>57</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>58</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>59</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>60</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>61</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>62</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>63</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>64</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>65</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>66</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>67</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>68</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>69</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>70</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>41</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>71</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>72</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>73</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>74</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>75</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>76</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>77</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>78</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>79</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>80</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>81</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>82</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>83</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>84</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>18</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>85</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>86</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>87</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>88</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>89</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>90</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>91</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>92</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>93</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>94</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>95</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>96</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>97</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>98</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>14</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>99</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>100</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>101</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>102</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>103</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>104</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>105</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>106</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>107</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>108</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>101</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>109</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>110</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>111</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>112</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>113</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>114</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>115</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>116</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>117</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>101</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>118</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>119</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>120</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>121</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>122</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>40</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>123</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>124</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>125</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>126</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>127</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>128</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>129</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>130</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>131</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>132</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>133</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>134</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>135</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>136</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>137</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>14</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>138</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>139</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>140</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>141</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>142</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>143</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>144</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>145</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>146</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>147</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>148</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>149</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>150</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>151</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>152</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>153</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>154</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>155</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>156</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>157</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>158</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>159</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>160</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>161</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>8</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>18</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>162</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>163</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>8</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>164</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>165</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>66</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>166</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>167</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>168</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>169</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>170</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>171</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>172</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>173</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>174</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>175</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>8</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>18</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>176</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>177</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>178</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>179</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>180</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>181</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>182</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>183</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>184</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>185</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>186</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>187</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>18</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>182</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>188</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>189</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>18</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>190</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>8</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>191</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>192</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>193</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>194</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>195</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>196</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>197</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>198</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>199</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>200</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>201</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>202</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>203</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>204</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>205</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>206</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>207</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>208</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>209</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>5</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>210</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>211</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>212</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>213</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>214</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>215</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>216</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>217</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>218</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>219</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>220</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>8</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>221</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>222</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>223</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>224</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>225</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>226</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>227</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>228</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>229</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>230</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>18</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>231</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>8</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>232</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>233</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>234</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>235</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>236</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>237</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>238</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>18</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>239</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>240</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>241</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>8</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>242</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>243</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>244</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>8</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>245</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>246</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>30</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>247</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>248</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>249</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>8</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>250</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>18</v>
       </c>
@@ -5927,8 +5927,11 @@
       <c r="C299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>167</v>
       </c>
@@ -5939,7 +5942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>251</v>
       </c>
@@ -5960,21 +5963,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B451"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="175" workbookViewId="0">
+      <selection activeCell="B452" sqref="B452"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>253</v>
       </c>
@@ -5982,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>254</v>
       </c>
@@ -5990,15 +5994,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>255</v>
       </c>
@@ -6006,15 +6010,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>256</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>257</v>
       </c>
@@ -6022,7 +6026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>258</v>
       </c>
@@ -6030,7 +6034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>259</v>
       </c>
@@ -6038,31 +6042,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>145</v>
       </c>
       <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>260</v>
       </c>
@@ -6070,23 +6074,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>261</v>
       </c>
       <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>262</v>
       </c>
@@ -6094,23 +6098,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>263</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>203</v>
       </c>
@@ -6118,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>264</v>
       </c>
@@ -6126,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>265</v>
       </c>
@@ -6134,15 +6138,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>266</v>
       </c>
@@ -6150,7 +6154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>267</v>
       </c>
@@ -6158,23 +6162,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>268</v>
       </c>
       <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>269</v>
       </c>
       <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>270</v>
       </c>
@@ -6182,7 +6186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>271</v>
       </c>
@@ -6190,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>272</v>
       </c>
@@ -6198,63 +6202,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
       <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
       <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>8</v>
       </c>
       <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>273</v>
       </c>
       <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>274</v>
       </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>8</v>
       </c>
       <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>275</v>
       </c>
       <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>276</v>
       </c>
@@ -6262,7 +6266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>277</v>
       </c>
@@ -6270,7 +6274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>278</v>
       </c>
@@ -6278,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>279</v>
       </c>
@@ -6286,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>280</v>
       </c>
@@ -6294,7 +6298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>281</v>
       </c>
@@ -6302,7 +6306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>282</v>
       </c>
@@ -6310,15 +6314,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>8</v>
       </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>283</v>
       </c>
@@ -6326,7 +6330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>284</v>
       </c>
@@ -6334,7 +6338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>285</v>
       </c>
@@ -6342,7 +6346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>286</v>
       </c>
@@ -6350,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>287</v>
       </c>
@@ -6358,7 +6362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>288</v>
       </c>
@@ -6366,7 +6370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>289</v>
       </c>
@@ -6374,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>290</v>
       </c>
@@ -6382,23 +6386,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>291</v>
       </c>
       <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>40</v>
       </c>
       <c r="B54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>292</v>
       </c>
@@ -6406,23 +6410,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>8</v>
       </c>
       <c r="B56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>293</v>
       </c>
       <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>294</v>
       </c>
@@ -6430,7 +6434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>295</v>
       </c>
@@ -6438,15 +6442,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>296</v>
       </c>
       <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>297</v>
       </c>
@@ -6454,23 +6458,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>298</v>
       </c>
       <c r="B62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>299</v>
       </c>
       <c r="B63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>300</v>
       </c>
@@ -6478,15 +6482,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>18</v>
       </c>
       <c r="B65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>301</v>
       </c>
@@ -6494,7 +6498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>302</v>
       </c>
@@ -6502,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>303</v>
       </c>
@@ -6510,15 +6514,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>304</v>
       </c>
       <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>305</v>
       </c>
@@ -6526,15 +6530,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>306</v>
       </c>
       <c r="B71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>307</v>
       </c>
@@ -6542,23 +6546,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>308</v>
       </c>
       <c r="B73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>309</v>
       </c>
       <c r="B74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>310</v>
       </c>
@@ -6566,15 +6570,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>8</v>
       </c>
       <c r="B76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>311</v>
       </c>
@@ -6582,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>312</v>
       </c>
@@ -6590,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>313</v>
       </c>
@@ -6598,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>314</v>
       </c>
@@ -6606,39 +6610,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>315</v>
       </c>
       <c r="B81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>316</v>
       </c>
       <c r="B82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>8</v>
       </c>
       <c r="B83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>317</v>
       </c>
       <c r="B84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>318</v>
       </c>
@@ -6646,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>319</v>
       </c>
@@ -6654,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>320</v>
       </c>
@@ -6662,7 +6666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>321</v>
       </c>
@@ -6670,7 +6674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>322</v>
       </c>
@@ -6678,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>323</v>
       </c>
@@ -6686,7 +6690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>324</v>
       </c>
@@ -6694,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>325</v>
       </c>
@@ -6702,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>326</v>
       </c>
@@ -6710,7 +6714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>327</v>
       </c>
@@ -6718,15 +6722,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>328</v>
       </c>
       <c r="B95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>329</v>
       </c>
@@ -6734,7 +6738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>330</v>
       </c>
@@ -6742,7 +6746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>331</v>
       </c>
@@ -6750,15 +6754,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>332</v>
       </c>
       <c r="B99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>333</v>
       </c>
@@ -6766,7 +6770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>334</v>
       </c>
@@ -6774,47 +6778,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>40</v>
       </c>
       <c r="B102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>41</v>
       </c>
       <c r="B103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>335</v>
       </c>
       <c r="B104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>8</v>
       </c>
       <c r="B105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>336</v>
       </c>
       <c r="B106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>337</v>
       </c>
@@ -6822,7 +6826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>338</v>
       </c>
@@ -6830,7 +6834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>339</v>
       </c>
@@ -6838,7 +6842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>340</v>
       </c>
@@ -6846,15 +6850,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>341</v>
       </c>
       <c r="B111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>342</v>
       </c>
@@ -6862,7 +6866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>343</v>
       </c>
@@ -6870,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>344</v>
       </c>
@@ -6878,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>345</v>
       </c>
@@ -6886,7 +6890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>346</v>
       </c>
@@ -6894,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>347</v>
       </c>
@@ -6902,7 +6906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>348</v>
       </c>
@@ -6910,7 +6914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>349</v>
       </c>
@@ -6918,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>350</v>
       </c>
@@ -6926,7 +6930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>351</v>
       </c>
@@ -6934,15 +6938,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>40</v>
       </c>
       <c r="B122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>352</v>
       </c>
@@ -6950,23 +6954,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>353</v>
       </c>
       <c r="B124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>8</v>
       </c>
       <c r="B125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>354</v>
       </c>
@@ -6974,7 +6978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>355</v>
       </c>
@@ -6982,23 +6986,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>8</v>
       </c>
       <c r="B128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>18</v>
       </c>
       <c r="B129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>356</v>
       </c>
@@ -7006,7 +7010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>357</v>
       </c>
@@ -7014,7 +7018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>358</v>
       </c>
@@ -7022,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>359</v>
       </c>
@@ -7030,7 +7034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>360</v>
       </c>
@@ -7038,7 +7042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>361</v>
       </c>
@@ -7046,7 +7050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>362</v>
       </c>
@@ -7054,15 +7058,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>363</v>
       </c>
       <c r="B137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>364</v>
       </c>
@@ -7070,15 +7074,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>8</v>
       </c>
       <c r="B139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>365</v>
       </c>
@@ -7086,23 +7090,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>18</v>
       </c>
       <c r="B141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>366</v>
       </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>367</v>
       </c>
@@ -7110,7 +7114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>368</v>
       </c>
@@ -7118,7 +7122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>369</v>
       </c>
@@ -7126,15 +7130,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>370</v>
       </c>
       <c r="B146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>371</v>
       </c>
@@ -7142,7 +7146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>372</v>
       </c>
@@ -7150,7 +7154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>373</v>
       </c>
@@ -7158,7 +7162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>374</v>
       </c>
@@ -7166,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>375</v>
       </c>
@@ -7174,23 +7178,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>376</v>
       </c>
       <c r="B152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>377</v>
       </c>
       <c r="B153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>378</v>
       </c>
@@ -7198,7 +7202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>379</v>
       </c>
@@ -7206,15 +7210,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>8</v>
       </c>
       <c r="B156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>380</v>
       </c>
@@ -7222,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>381</v>
       </c>
@@ -7230,7 +7234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>382</v>
       </c>
@@ -7238,7 +7242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>383</v>
       </c>
@@ -7246,15 +7250,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>384</v>
       </c>
       <c r="B161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>385</v>
       </c>
@@ -7262,7 +7266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>386</v>
       </c>
@@ -7270,7 +7274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>387</v>
       </c>
@@ -7278,7 +7282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>388</v>
       </c>
@@ -7286,23 +7290,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>389</v>
       </c>
       <c r="B166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>390</v>
       </c>
       <c r="B167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>391</v>
       </c>
@@ -7310,7 +7314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>392</v>
       </c>
@@ -7318,7 +7322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>393</v>
       </c>
@@ -7326,7 +7330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>394</v>
       </c>
@@ -7334,15 +7338,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>395</v>
       </c>
       <c r="B172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>396</v>
       </c>
@@ -7350,15 +7354,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>145</v>
       </c>
       <c r="B174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>397</v>
       </c>
@@ -7366,15 +7370,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>8</v>
       </c>
       <c r="B176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>398</v>
       </c>
@@ -7382,7 +7386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>399</v>
       </c>
@@ -7390,7 +7394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>400</v>
       </c>
@@ -7398,23 +7402,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>401</v>
       </c>
       <c r="B180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>18</v>
       </c>
       <c r="B181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>402</v>
       </c>
@@ -7422,15 +7426,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>18</v>
       </c>
       <c r="B183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>403</v>
       </c>
@@ -7438,23 +7442,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>404</v>
       </c>
       <c r="B185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>405</v>
       </c>
       <c r="B186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>406</v>
       </c>
@@ -7462,23 +7466,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>407</v>
       </c>
       <c r="B188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>408</v>
       </c>
       <c r="B189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>409</v>
       </c>
@@ -7486,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>410</v>
       </c>
@@ -7494,31 +7498,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>18</v>
       </c>
       <c r="B192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>8</v>
       </c>
       <c r="B193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>411</v>
       </c>
       <c r="B194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>412</v>
       </c>
@@ -7526,7 +7530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>413</v>
       </c>
@@ -7534,7 +7538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>414</v>
       </c>
@@ -7542,7 +7546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>415</v>
       </c>
@@ -7550,7 +7554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>416</v>
       </c>
@@ -7558,7 +7562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>417</v>
       </c>
@@ -7566,7 +7570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>418</v>
       </c>
@@ -7574,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>419</v>
       </c>
@@ -7582,7 +7586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>420</v>
       </c>
@@ -7590,31 +7594,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>14</v>
       </c>
       <c r="B204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>8</v>
       </c>
       <c r="B205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>421</v>
       </c>
       <c r="B206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>422</v>
       </c>
@@ -7622,23 +7626,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>423</v>
       </c>
       <c r="B208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>5</v>
       </c>
       <c r="B209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>424</v>
       </c>
@@ -7646,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>425</v>
       </c>
@@ -7654,7 +7658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>426</v>
       </c>
@@ -7662,15 +7666,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>8</v>
       </c>
       <c r="B213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>427</v>
       </c>
@@ -7678,7 +7682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>428</v>
       </c>
@@ -7686,7 +7690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>429</v>
       </c>
@@ -7694,7 +7698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>430</v>
       </c>
@@ -7702,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>431</v>
       </c>
@@ -7710,7 +7714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>432</v>
       </c>
@@ -7718,15 +7722,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>433</v>
       </c>
       <c r="B220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>434</v>
       </c>
@@ -7734,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>435</v>
       </c>
@@ -7742,7 +7746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>436</v>
       </c>
@@ -7750,15 +7754,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>14</v>
       </c>
       <c r="B224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>437</v>
       </c>
@@ -7766,15 +7770,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>438</v>
       </c>
       <c r="B226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>439</v>
       </c>
@@ -7782,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>440</v>
       </c>
@@ -7790,7 +7794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>441</v>
       </c>
@@ -7798,7 +7802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>442</v>
       </c>
@@ -7806,7 +7810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>443</v>
       </c>
@@ -7814,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>444</v>
       </c>
@@ -7822,7 +7826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>445</v>
       </c>
@@ -7830,7 +7834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>446</v>
       </c>
@@ -7838,7 +7842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>447</v>
       </c>
@@ -7846,7 +7850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>448</v>
       </c>
@@ -7854,7 +7858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>449</v>
       </c>
@@ -7862,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>450</v>
       </c>
@@ -7870,23 +7874,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>451</v>
       </c>
       <c r="B239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>56</v>
       </c>
       <c r="B240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>452</v>
       </c>
@@ -7894,7 +7898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>453</v>
       </c>
@@ -7902,7 +7906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>454</v>
       </c>
@@ -7910,7 +7914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>455</v>
       </c>
@@ -7918,7 +7922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>456</v>
       </c>
@@ -7926,31 +7930,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>457</v>
       </c>
       <c r="B246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>458</v>
       </c>
       <c r="B247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>8</v>
       </c>
       <c r="B248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>459</v>
       </c>
@@ -7958,7 +7962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>460</v>
       </c>
@@ -7966,15 +7970,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>461</v>
       </c>
       <c r="B251">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>462</v>
       </c>
@@ -7982,7 +7986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>463</v>
       </c>
@@ -7990,15 +7994,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>8</v>
       </c>
       <c r="B254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>464</v>
       </c>
@@ -8006,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>465</v>
       </c>
@@ -8014,7 +8018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>466</v>
       </c>
@@ -8022,7 +8026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>467</v>
       </c>
@@ -8030,15 +8034,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>468</v>
       </c>
       <c r="B259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>469</v>
       </c>
@@ -8046,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>470</v>
       </c>
@@ -8054,15 +8058,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>8</v>
       </c>
       <c r="B262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>471</v>
       </c>
@@ -8070,7 +8074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>472</v>
       </c>
@@ -8078,7 +8082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>473</v>
       </c>
@@ -8086,15 +8090,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>18</v>
       </c>
       <c r="B266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>474</v>
       </c>
@@ -8102,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>475</v>
       </c>
@@ -8110,15 +8114,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>476</v>
       </c>
       <c r="B269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>477</v>
       </c>
@@ -8126,23 +8130,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>18</v>
       </c>
       <c r="B271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>8</v>
       </c>
       <c r="B272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>478</v>
       </c>
@@ -8150,23 +8154,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>291</v>
       </c>
       <c r="B274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>479</v>
       </c>
       <c r="B275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>480</v>
       </c>
@@ -8174,7 +8178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>481</v>
       </c>
@@ -8182,15 +8186,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>482</v>
       </c>
       <c r="B278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>483</v>
       </c>
@@ -8198,7 +8202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>484</v>
       </c>
@@ -8206,7 +8210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>485</v>
       </c>
@@ -8214,7 +8218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>486</v>
       </c>
@@ -8222,23 +8226,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>18</v>
       </c>
       <c r="B283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>40</v>
       </c>
       <c r="B284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>487</v>
       </c>
@@ -8246,39 +8250,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>488</v>
       </c>
       <c r="B286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>489</v>
       </c>
       <c r="B287">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>490</v>
       </c>
       <c r="B288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>491</v>
       </c>
       <c r="B289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>492</v>
       </c>
@@ -8286,7 +8290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>493</v>
       </c>
@@ -8294,7 +8298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>494</v>
       </c>
@@ -8302,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>495</v>
       </c>
@@ -8310,7 +8314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>496</v>
       </c>
@@ -8318,7 +8322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>497</v>
       </c>
@@ -8326,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>498</v>
       </c>
@@ -8334,15 +8338,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>9</v>
       </c>
       <c r="B297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>499</v>
       </c>
@@ -8350,23 +8354,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>500</v>
       </c>
       <c r="B299">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>8</v>
       </c>
       <c r="B300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>501</v>
       </c>
@@ -8374,23 +8378,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>56</v>
       </c>
       <c r="B302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>40</v>
       </c>
       <c r="B303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>502</v>
       </c>
@@ -8398,7 +8402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>503</v>
       </c>
@@ -8406,7 +8410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>504</v>
       </c>
@@ -8414,15 +8418,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>505</v>
       </c>
       <c r="B307">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>506</v>
       </c>
@@ -8430,15 +8434,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>507</v>
       </c>
       <c r="B309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>508</v>
       </c>
@@ -8446,7 +8450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>509</v>
       </c>
@@ -8454,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>510</v>
       </c>
@@ -8462,7 +8466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>511</v>
       </c>
@@ -8470,23 +8474,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>512</v>
       </c>
       <c r="B314">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>8</v>
       </c>
       <c r="B315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>513</v>
       </c>
@@ -8494,7 +8498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>514</v>
       </c>
@@ -8502,7 +8506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>515</v>
       </c>
@@ -8510,39 +8514,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>8</v>
       </c>
       <c r="B319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>516</v>
       </c>
       <c r="B320">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>8</v>
       </c>
       <c r="B321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>291</v>
       </c>
       <c r="B322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>517</v>
       </c>
@@ -8550,15 +8554,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>18</v>
       </c>
       <c r="B324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>518</v>
       </c>
@@ -8566,7 +8570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>519</v>
       </c>
@@ -8574,7 +8578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>520</v>
       </c>
@@ -8582,7 +8586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>521</v>
       </c>
@@ -8590,7 +8594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>522</v>
       </c>
@@ -8598,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>523</v>
       </c>
@@ -8606,15 +8610,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>524</v>
       </c>
       <c r="B331">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>525</v>
       </c>
@@ -8622,15 +8626,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>41</v>
       </c>
       <c r="B333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>526</v>
       </c>
@@ -8638,7 +8642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>527</v>
       </c>
@@ -8646,15 +8650,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>14</v>
       </c>
       <c r="B336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>528</v>
       </c>
@@ -8662,31 +8666,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>529</v>
       </c>
       <c r="B338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>530</v>
       </c>
       <c r="B339">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>182</v>
       </c>
       <c r="B340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>531</v>
       </c>
@@ -8694,23 +8698,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>9</v>
       </c>
       <c r="B342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>532</v>
       </c>
       <c r="B343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>533</v>
       </c>
@@ -8718,7 +8722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>534</v>
       </c>
@@ -8726,31 +8730,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>18</v>
       </c>
       <c r="B346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>535</v>
       </c>
       <c r="B347">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>56</v>
       </c>
       <c r="B348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>536</v>
       </c>
@@ -8758,31 +8762,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>8</v>
       </c>
       <c r="B350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>18</v>
       </c>
       <c r="B351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>537</v>
       </c>
       <c r="B352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>538</v>
       </c>
@@ -8790,7 +8794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>539</v>
       </c>
@@ -8798,7 +8802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>540</v>
       </c>
@@ -8806,15 +8810,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>541</v>
       </c>
       <c r="B356">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>542</v>
       </c>
@@ -8822,15 +8826,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>543</v>
       </c>
       <c r="B358">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>544</v>
       </c>
@@ -8838,7 +8842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>545</v>
       </c>
@@ -8846,7 +8850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>546</v>
       </c>
@@ -8854,23 +8858,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>8</v>
       </c>
       <c r="B362">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>547</v>
       </c>
       <c r="B363">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>548</v>
       </c>
@@ -8878,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>549</v>
       </c>
@@ -8886,7 +8890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>550</v>
       </c>
@@ -8894,7 +8898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>551</v>
       </c>
@@ -8902,15 +8906,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>552</v>
       </c>
       <c r="B368">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>553</v>
       </c>
@@ -8918,7 +8922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>554</v>
       </c>
@@ -8926,15 +8930,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>555</v>
       </c>
       <c r="B371">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>556</v>
       </c>
@@ -8942,15 +8946,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>18</v>
       </c>
       <c r="B373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>557</v>
       </c>
@@ -8958,15 +8962,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>558</v>
       </c>
       <c r="B375">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>559</v>
       </c>
@@ -8974,7 +8978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>560</v>
       </c>
@@ -8982,15 +8986,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>561</v>
       </c>
       <c r="B378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>562</v>
       </c>
@@ -8998,15 +9002,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>563</v>
       </c>
       <c r="B380">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>564</v>
       </c>
@@ -9014,7 +9018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>565</v>
       </c>
@@ -9022,7 +9026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>566</v>
       </c>
@@ -9030,7 +9034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>567</v>
       </c>
@@ -9038,31 +9042,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>18</v>
       </c>
       <c r="B385">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>568</v>
       </c>
       <c r="B386">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>569</v>
       </c>
       <c r="B387">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>570</v>
       </c>
@@ -9070,15 +9074,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>66</v>
       </c>
       <c r="B389">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>571</v>
       </c>
@@ -9086,7 +9090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>572</v>
       </c>
@@ -9094,15 +9098,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>573</v>
       </c>
       <c r="B392">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>574</v>
       </c>
@@ -9110,23 +9114,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>575</v>
       </c>
       <c r="B394">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>576</v>
       </c>
       <c r="B395">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>577</v>
       </c>
@@ -9134,7 +9138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>578</v>
       </c>
@@ -9142,7 +9146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>579</v>
       </c>
@@ -9150,7 +9154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>580</v>
       </c>
@@ -9158,7 +9162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>581</v>
       </c>
@@ -9166,39 +9170,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>582</v>
       </c>
       <c r="B401">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>583</v>
       </c>
       <c r="B402">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>584</v>
       </c>
       <c r="B403">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>585</v>
       </c>
       <c r="B404">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>586</v>
       </c>
@@ -9206,7 +9210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>587</v>
       </c>
@@ -9214,23 +9218,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>8</v>
       </c>
       <c r="B407">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>588</v>
       </c>
       <c r="B408">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>589</v>
       </c>
@@ -9238,15 +9242,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>8</v>
       </c>
       <c r="B410">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>590</v>
       </c>
@@ -9254,15 +9258,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>18</v>
       </c>
       <c r="B412">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>591</v>
       </c>
@@ -9270,15 +9274,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>592</v>
       </c>
       <c r="B414">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>593</v>
       </c>
@@ -9286,15 +9290,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>18</v>
       </c>
       <c r="B416">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>594</v>
       </c>
@@ -9302,7 +9306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>595</v>
       </c>
@@ -9310,7 +9314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>596</v>
       </c>
@@ -9318,7 +9322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>597</v>
       </c>
@@ -9326,7 +9330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>598</v>
       </c>
@@ -9334,7 +9338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>599</v>
       </c>
@@ -9342,7 +9346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>600</v>
       </c>
@@ -9350,15 +9354,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>601</v>
       </c>
       <c r="B424">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>602</v>
       </c>
@@ -9366,15 +9370,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>8</v>
       </c>
       <c r="B426">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>603</v>
       </c>
@@ -9382,7 +9386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>604</v>
       </c>
@@ -9390,7 +9394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>605</v>
       </c>
@@ -9398,15 +9402,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>41</v>
       </c>
       <c r="B430">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>606</v>
       </c>
@@ -9414,7 +9418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>607</v>
       </c>
@@ -9422,15 +9426,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>608</v>
       </c>
       <c r="B433">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>609</v>
       </c>
@@ -9438,7 +9442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>610</v>
       </c>
@@ -9446,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>611</v>
       </c>
@@ -9454,7 +9458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>612</v>
       </c>
@@ -9462,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>613</v>
       </c>
@@ -9470,7 +9474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>614</v>
       </c>
@@ -9478,7 +9482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>615</v>
       </c>
@@ -9486,7 +9490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>616</v>
       </c>
@@ -9494,31 +9498,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>8</v>
       </c>
       <c r="B442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>617</v>
       </c>
       <c r="B443">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>618</v>
       </c>
       <c r="B444">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>619</v>
       </c>
@@ -9526,7 +9530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>620</v>
       </c>
@@ -9534,7 +9538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>621</v>
       </c>
@@ -9542,7 +9546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>622</v>
       </c>
@@ -9550,7 +9554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>623</v>
       </c>
@@ -9558,7 +9562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>624</v>
       </c>
@@ -9566,12 +9570,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>625</v>
       </c>
       <c r="B451">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/era uma vez em hollywood.xlsx
+++ b/era uma vez em hollywood.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizbernardino/Documents/p2_datascience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30189AFE-6CC8-4E4C-AF31-DDD5475BEDF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E640BB-4453-2A4C-83FF-DC2217FE7DAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="627">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2222,9 +2222,6 @@
   </si>
   <si>
     <t>rt @rafashins: era uma vez em hollywood... um filme bom e ruim ao mesmo tempo. não sai feliz e nem triste do cinema, bagulho estranho. uaeh…</t>
-  </si>
-  <si>
-    <t>Classificação</t>
   </si>
   <si>
     <t>-</t>
@@ -2635,8 +2632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" zoomScale="90" workbookViewId="0">
-      <selection activeCell="I300" sqref="I300"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="90" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2645,3165 +2642,1858 @@
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>29</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>30</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>31</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>32</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>33</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>34</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>35</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>36</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>14</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>18</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>38</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>39</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>8</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>40</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>41</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>42</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>43</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>44</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>45</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>46</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>14</v>
       </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>47</v>
       </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>48</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>49</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>50</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>51</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>52</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>53</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>54</v>
       </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>18</v>
       </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>55</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>8</v>
       </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>56</v>
       </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>57</v>
       </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>58</v>
       </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>59</v>
       </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>60</v>
       </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>61</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>62</v>
       </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>63</v>
       </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>8</v>
       </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>64</v>
       </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>8</v>
       </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>65</v>
       </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>66</v>
       </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>67</v>
       </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>68</v>
       </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>69</v>
       </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>70</v>
       </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>41</v>
       </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>71</v>
       </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>72</v>
       </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>73</v>
       </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>74</v>
       </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>75</v>
       </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>76</v>
       </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>77</v>
       </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>78</v>
       </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>79</v>
       </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>8</v>
       </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>80</v>
       </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>81</v>
       </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>82</v>
       </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>83</v>
       </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>84</v>
       </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>18</v>
       </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>85</v>
       </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>86</v>
       </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>87</v>
       </c>
-      <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>88</v>
       </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>89</v>
       </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>90</v>
       </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>91</v>
       </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>92</v>
       </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>18</v>
       </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>93</v>
       </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>94</v>
       </c>
-      <c r="B111">
-        <v>0</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>95</v>
       </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>96</v>
       </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>97</v>
       </c>
-      <c r="B114">
-        <v>1</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>98</v>
       </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>14</v>
       </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>99</v>
       </c>
-      <c r="B117">
-        <v>0</v>
-      </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>8</v>
       </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>8</v>
       </c>
-      <c r="B119">
-        <v>0</v>
-      </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>100</v>
       </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>101</v>
       </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>102</v>
       </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>103</v>
       </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>104</v>
       </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>105</v>
       </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>106</v>
       </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>107</v>
       </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>108</v>
       </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>101</v>
       </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>109</v>
       </c>
-      <c r="B130">
-        <v>0</v>
-      </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>110</v>
       </c>
-      <c r="B131">
-        <v>0</v>
-      </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>111</v>
       </c>
-      <c r="B132">
-        <v>0</v>
-      </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>112</v>
       </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>113</v>
       </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-      <c r="C134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>114</v>
       </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>115</v>
       </c>
-      <c r="B136">
-        <v>0</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>8</v>
       </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>8</v>
       </c>
-      <c r="B138">
-        <v>0</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>116</v>
       </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>117</v>
       </c>
-      <c r="B140">
-        <v>0</v>
-      </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>101</v>
       </c>
-      <c r="B141">
-        <v>0</v>
-      </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>118</v>
       </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>119</v>
       </c>
-      <c r="B143">
-        <v>0</v>
-      </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>120</v>
       </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-      <c r="C144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>121</v>
       </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>122</v>
       </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>40</v>
       </c>
-      <c r="B147">
-        <v>0</v>
-      </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>123</v>
       </c>
-      <c r="B148">
-        <v>0</v>
-      </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>124</v>
       </c>
-      <c r="B149">
-        <v>0</v>
-      </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>125</v>
       </c>
-      <c r="B150">
-        <v>0</v>
-      </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>126</v>
       </c>
       <c r="B151">
         <v>1</v>
       </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>127</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>128</v>
       </c>
       <c r="B153">
-        <v>1</v>
-      </c>
-      <c r="C153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>129</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
-      <c r="C154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>130</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>131</v>
       </c>
       <c r="B156">
-        <v>1</v>
-      </c>
-      <c r="C156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>132</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
-      <c r="C157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>8</v>
       </c>
       <c r="B158">
-        <v>0</v>
-      </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>8</v>
       </c>
       <c r="B159">
-        <v>0</v>
-      </c>
-      <c r="C159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>133</v>
       </c>
       <c r="B160">
-        <v>1</v>
-      </c>
-      <c r="C160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>134</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
-      <c r="C161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>135</v>
       </c>
       <c r="B162">
-        <v>1</v>
-      </c>
-      <c r="C162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>136</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
-      <c r="C163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>137</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
-      <c r="C164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>14</v>
       </c>
       <c r="B165">
-        <v>0</v>
-      </c>
-      <c r="C165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>138</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
-      <c r="C166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>139</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
-      <c r="C167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>140</v>
       </c>
       <c r="B168">
         <v>1</v>
       </c>
-      <c r="C168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>141</v>
       </c>
       <c r="B169">
-        <v>0</v>
-      </c>
-      <c r="C169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>142</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
-      <c r="C170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>143</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
-      <c r="C171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>144</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
-      <c r="C172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>145</v>
       </c>
       <c r="B173">
-        <v>0</v>
-      </c>
-      <c r="C173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>146</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
-      <c r="C174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>147</v>
       </c>
       <c r="B175">
-        <v>0</v>
-      </c>
-      <c r="C175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>148</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
-      <c r="C176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>149</v>
       </c>
       <c r="B177">
         <v>0</v>
       </c>
-      <c r="C177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>150</v>
       </c>
       <c r="B178">
-        <v>0</v>
-      </c>
-      <c r="C178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>151</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
-      <c r="C179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>152</v>
       </c>
       <c r="B180">
         <v>0</v>
       </c>
-      <c r="C180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>153</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
-      <c r="C181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>154</v>
       </c>
       <c r="B182">
-        <v>0</v>
-      </c>
-      <c r="C182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>155</v>
       </c>
       <c r="B183">
         <v>1</v>
       </c>
-      <c r="C183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>156</v>
       </c>
       <c r="B184">
         <v>0</v>
       </c>
-      <c r="C184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>157</v>
       </c>
       <c r="B185">
-        <v>0</v>
-      </c>
-      <c r="C185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>158</v>
       </c>
       <c r="B186">
-        <v>0</v>
-      </c>
-      <c r="C186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>159</v>
       </c>
       <c r="B187">
         <v>0</v>
       </c>
-      <c r="C187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>160</v>
       </c>
       <c r="B188">
-        <v>1</v>
-      </c>
-      <c r="C188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>161</v>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
-      <c r="C189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>8</v>
       </c>
       <c r="B190">
-        <v>0</v>
-      </c>
-      <c r="C190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>5</v>
       </c>
       <c r="B191">
-        <v>0</v>
-      </c>
-      <c r="C191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>18</v>
       </c>
       <c r="B192">
-        <v>0</v>
-      </c>
-      <c r="C192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>162</v>
       </c>
       <c r="B193">
-        <v>1</v>
-      </c>
-      <c r="C193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>163</v>
       </c>
       <c r="B194">
         <v>0</v>
       </c>
-      <c r="C194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>8</v>
       </c>
       <c r="B195">
-        <v>0</v>
-      </c>
-      <c r="C195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>164</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
-      <c r="C196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>165</v>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
-      <c r="C197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>66</v>
       </c>
       <c r="B198">
-        <v>0</v>
-      </c>
-      <c r="C198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>166</v>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
-      <c r="C199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>167</v>
       </c>
       <c r="B200">
         <v>0</v>
       </c>
-      <c r="C200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>168</v>
       </c>
       <c r="B201">
         <v>1</v>
       </c>
-      <c r="C201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>169</v>
       </c>
       <c r="B202">
         <v>0</v>
       </c>
-      <c r="C202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>170</v>
       </c>
       <c r="B203">
-        <v>0</v>
-      </c>
-      <c r="C203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>171</v>
       </c>
       <c r="B204">
         <v>1</v>
       </c>
-      <c r="C204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>172</v>
       </c>
       <c r="B205">
         <v>1</v>
       </c>
-      <c r="C205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>173</v>
       </c>
       <c r="B206">
         <v>0</v>
       </c>
-      <c r="C206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>174</v>
       </c>
       <c r="B207">
         <v>1</v>
       </c>
-      <c r="C207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>175</v>
       </c>
       <c r="B208">
         <v>0</v>
       </c>
-      <c r="C208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>8</v>
       </c>
       <c r="B209">
-        <v>0</v>
-      </c>
-      <c r="C209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>18</v>
       </c>
       <c r="B210">
-        <v>0</v>
-      </c>
-      <c r="C210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>176</v>
       </c>
       <c r="B211">
         <v>1</v>
       </c>
-      <c r="C211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>177</v>
       </c>
       <c r="B212">
         <v>0</v>
       </c>
-      <c r="C212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>178</v>
       </c>
       <c r="B213">
-        <v>0</v>
-      </c>
-      <c r="C213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>179</v>
       </c>
       <c r="B214">
         <v>0</v>
       </c>
-      <c r="C214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>180</v>
       </c>
       <c r="B215">
-        <v>1</v>
-      </c>
-      <c r="C215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>181</v>
       </c>
       <c r="B216">
         <v>0</v>
       </c>
-      <c r="C216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>182</v>
       </c>
       <c r="B217">
-        <v>0</v>
-      </c>
-      <c r="C217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>183</v>
       </c>
       <c r="B218">
         <v>1</v>
       </c>
-      <c r="C218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>184</v>
       </c>
       <c r="B219">
         <v>0</v>
       </c>
-      <c r="C219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>185</v>
       </c>
       <c r="B220">
-        <v>1</v>
-      </c>
-      <c r="C220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>186</v>
       </c>
       <c r="B221">
         <v>0</v>
       </c>
-      <c r="C221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>187</v>
       </c>
       <c r="B222">
         <v>0</v>
       </c>
-      <c r="C222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>18</v>
       </c>
       <c r="B223">
-        <v>0</v>
-      </c>
-      <c r="C223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>182</v>
       </c>
       <c r="B224">
-        <v>0</v>
-      </c>
-      <c r="C224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>188</v>
       </c>
       <c r="B225">
         <v>1</v>
       </c>
-      <c r="C225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>189</v>
       </c>
       <c r="B226">
         <v>1</v>
       </c>
-      <c r="C226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>18</v>
       </c>
       <c r="B227">
-        <v>0</v>
-      </c>
-      <c r="C227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>190</v>
       </c>
       <c r="B228">
         <v>0</v>
       </c>
-      <c r="C228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>8</v>
       </c>
       <c r="B229">
-        <v>0</v>
-      </c>
-      <c r="C229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>191</v>
       </c>
       <c r="B230">
         <v>0</v>
       </c>
-      <c r="C230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>192</v>
       </c>
       <c r="B231">
         <v>1</v>
       </c>
-      <c r="C231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>193</v>
       </c>
       <c r="B232">
         <v>0</v>
       </c>
-      <c r="C232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>194</v>
       </c>
       <c r="B233">
-        <v>1</v>
-      </c>
-      <c r="C233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>195</v>
       </c>
       <c r="B234">
         <v>0</v>
       </c>
-      <c r="C234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>196</v>
       </c>
       <c r="B235">
         <v>1</v>
       </c>
-      <c r="C235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>197</v>
       </c>
       <c r="B236">
         <v>0</v>
       </c>
-      <c r="C236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>198</v>
       </c>
       <c r="B237">
         <v>0</v>
       </c>
-      <c r="C237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>199</v>
       </c>
       <c r="B238">
         <v>0</v>
       </c>
-      <c r="C238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>200</v>
       </c>
       <c r="B239">
         <v>1</v>
       </c>
-      <c r="C239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>201</v>
       </c>
       <c r="B240">
         <v>1</v>
       </c>
-      <c r="C240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>202</v>
       </c>
       <c r="B241">
         <v>0</v>
       </c>
-      <c r="C241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>203</v>
       </c>
       <c r="B242">
         <v>0</v>
       </c>
-      <c r="C242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>204</v>
       </c>
       <c r="B243">
         <v>0</v>
       </c>
-      <c r="C243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>205</v>
       </c>
       <c r="B244">
-        <v>1</v>
-      </c>
-      <c r="C244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>206</v>
       </c>
       <c r="B245">
-        <v>1</v>
-      </c>
-      <c r="C245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>207</v>
       </c>
       <c r="B246">
         <v>1</v>
       </c>
-      <c r="C246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>208</v>
       </c>
       <c r="B247">
         <v>1</v>
       </c>
-      <c r="C247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>209</v>
       </c>
       <c r="B248">
-        <v>0</v>
-      </c>
-      <c r="C248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>5</v>
       </c>
       <c r="B249">
-        <v>0</v>
-      </c>
-      <c r="C249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>210</v>
       </c>
       <c r="B250">
-        <v>1</v>
-      </c>
-      <c r="C250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>211</v>
       </c>
       <c r="B251">
         <v>0</v>
       </c>
-      <c r="C251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>212</v>
       </c>
       <c r="B252">
         <v>0</v>
       </c>
-      <c r="C252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>213</v>
       </c>
       <c r="B253">
-        <v>1</v>
-      </c>
-      <c r="C253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>214</v>
       </c>
       <c r="B254">
-        <v>1</v>
-      </c>
-      <c r="C254">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>215</v>
       </c>
       <c r="B255">
         <v>0</v>
       </c>
-      <c r="C255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>216</v>
       </c>
       <c r="B256">
-        <v>1</v>
-      </c>
-      <c r="C256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>217</v>
       </c>
       <c r="B257">
         <v>0</v>
       </c>
-      <c r="C257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>218</v>
       </c>
       <c r="B258">
         <v>0</v>
       </c>
-      <c r="C258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>219</v>
       </c>
       <c r="B259">
         <v>0</v>
       </c>
-      <c r="C259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>220</v>
       </c>
       <c r="B260">
-        <v>1</v>
-      </c>
-      <c r="C260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>8</v>
       </c>
       <c r="B261">
-        <v>0</v>
-      </c>
-      <c r="C261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>221</v>
       </c>
       <c r="B262">
-        <v>1</v>
-      </c>
-      <c r="C262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>222</v>
       </c>
       <c r="B263">
         <v>0</v>
       </c>
-      <c r="C263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>223</v>
       </c>
       <c r="B264">
         <v>1</v>
       </c>
-      <c r="C264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>224</v>
       </c>
       <c r="B265">
         <v>1</v>
       </c>
-      <c r="C265">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>225</v>
       </c>
       <c r="B266">
-        <v>1</v>
-      </c>
-      <c r="C266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>226</v>
       </c>
       <c r="B267">
         <v>0</v>
       </c>
-      <c r="C267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>227</v>
       </c>
       <c r="B268">
         <v>1</v>
       </c>
-      <c r="C268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>228</v>
       </c>
       <c r="B269">
         <v>0</v>
       </c>
-      <c r="C269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>229</v>
       </c>
       <c r="B270">
         <v>0</v>
       </c>
-      <c r="C270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>230</v>
       </c>
       <c r="B271">
         <v>0</v>
       </c>
-      <c r="C271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>18</v>
       </c>
       <c r="B272">
-        <v>0</v>
-      </c>
-      <c r="C272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>231</v>
       </c>
       <c r="B273">
         <v>1</v>
       </c>
-      <c r="C273">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>8</v>
       </c>
       <c r="B274">
-        <v>0</v>
-      </c>
-      <c r="C274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>232</v>
       </c>
       <c r="B275">
         <v>0</v>
       </c>
-      <c r="C275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>233</v>
       </c>
       <c r="B276">
         <v>0</v>
       </c>
-      <c r="C276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>234</v>
       </c>
       <c r="B277">
         <v>0</v>
       </c>
-      <c r="C277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>235</v>
       </c>
       <c r="B278">
         <v>0</v>
       </c>
-      <c r="C278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>236</v>
       </c>
       <c r="B279">
-        <v>1</v>
-      </c>
-      <c r="C279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>237</v>
       </c>
       <c r="B280">
         <v>0</v>
       </c>
-      <c r="C280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>238</v>
       </c>
       <c r="B281">
         <v>0</v>
       </c>
-      <c r="C281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>18</v>
       </c>
       <c r="B282">
-        <v>0</v>
-      </c>
-      <c r="C282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>239</v>
       </c>
       <c r="B283">
-        <v>0</v>
-      </c>
-      <c r="C283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>240</v>
       </c>
       <c r="B284">
         <v>0</v>
       </c>
-      <c r="C284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>241</v>
       </c>
       <c r="B285">
         <v>1</v>
       </c>
-      <c r="C285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>8</v>
       </c>
       <c r="B286">
-        <v>0</v>
-      </c>
-      <c r="C286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>242</v>
       </c>
       <c r="B287">
         <v>0</v>
       </c>
-      <c r="C287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>243</v>
       </c>
       <c r="B288">
-        <v>0</v>
-      </c>
-      <c r="C288">
         <v>0</v>
       </c>
     </row>
@@ -5814,19 +4504,13 @@
       <c r="B289">
         <v>0</v>
       </c>
-      <c r="C289">
-        <v>0</v>
-      </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>8</v>
       </c>
       <c r="B290">
-        <v>0</v>
-      </c>
-      <c r="C290">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
@@ -5836,19 +4520,13 @@
       <c r="B291">
         <v>1</v>
       </c>
-      <c r="C291">
-        <v>1</v>
-      </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>246</v>
       </c>
       <c r="B292">
-        <v>1</v>
-      </c>
-      <c r="C292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
@@ -5856,10 +4534,7 @@
         <v>30</v>
       </c>
       <c r="B293">
-        <v>1</v>
-      </c>
-      <c r="C293">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
@@ -5867,10 +4542,7 @@
         <v>247</v>
       </c>
       <c r="B294">
-        <v>1</v>
-      </c>
-      <c r="C294">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
@@ -5880,9 +4552,6 @@
       <c r="B295">
         <v>0</v>
       </c>
-      <c r="C295">
-        <v>0</v>
-      </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
@@ -5891,19 +4560,13 @@
       <c r="B296">
         <v>1</v>
       </c>
-      <c r="C296">
-        <v>1</v>
-      </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>8</v>
       </c>
       <c r="B297">
-        <v>0</v>
-      </c>
-      <c r="C297">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
@@ -5913,19 +4576,13 @@
       <c r="B298">
         <v>0</v>
       </c>
-      <c r="C298">
-        <v>0</v>
-      </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>18</v>
       </c>
       <c r="B299">
-        <v>0</v>
-      </c>
-      <c r="C299">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I299">
         <v>0</v>
@@ -5936,10 +4593,7 @@
         <v>167</v>
       </c>
       <c r="B300">
-        <v>0</v>
-      </c>
-      <c r="C300">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
@@ -5947,9 +4601,6 @@
         <v>251</v>
       </c>
       <c r="B301">
-        <v>1</v>
-      </c>
-      <c r="C301">
         <v>1</v>
       </c>
     </row>
@@ -5963,7 +4614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B451"/>
   <sheetViews>
-    <sheetView zoomScale="175" workbookViewId="0">
+    <sheetView topLeftCell="A182" zoomScale="175" workbookViewId="0">
       <selection activeCell="B452" sqref="B452"/>
     </sheetView>
   </sheetViews>
@@ -7103,7 +5754,7 @@
         <v>366</v>
       </c>
       <c r="B142" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">

--- a/era uma vez em hollywood.xlsx
+++ b/era uma vez em hollywood.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizbernardino/Documents/p2_datascience/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitor Bandeira\Desktop\Ciência dos dados\Projeto2\p2_datascience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30189AFE-6CC8-4E4C-AF31-DDD5475BEDF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F41481-8CAD-4D72-ABDB-DB0C8084E42C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="627">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2222,9 +2222,6 @@
   </si>
   <si>
     <t>rt @rafashins: era uma vez em hollywood... um filme bom e ruim ao mesmo tempo. não sai feliz e nem triste do cinema, bagulho estranho. uaeh…</t>
-  </si>
-  <si>
-    <t>Classificação</t>
   </si>
   <si>
     <t>-</t>
@@ -2635,3322 +2632,1968 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" zoomScale="90" workbookViewId="0">
-      <selection activeCell="I300" sqref="I300"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.83203125" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="47.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
       <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
       <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
       <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
       <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>36</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
       <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
       <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>18</v>
       </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>39</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
       <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>40</v>
       </c>
       <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
       <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
       <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
       <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>14</v>
       </c>
       <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>47</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>48</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>49</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>50</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>51</v>
       </c>
       <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>52</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>53</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>54</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>18</v>
       </c>
       <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>55</v>
       </c>
       <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
       <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>56</v>
       </c>
       <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>57</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>58</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>59</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>60</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>61</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>62</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>63</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
       <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>64</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
       <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>65</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>66</v>
       </c>
       <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>67</v>
       </c>
       <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>68</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>69</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>70</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>41</v>
       </c>
       <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>71</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>72</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>73</v>
       </c>
       <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>74</v>
       </c>
       <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>75</v>
       </c>
       <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>76</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>77</v>
       </c>
       <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>78</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>79</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
       <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>80</v>
       </c>
       <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>81</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>82</v>
       </c>
       <c r="B97">
-        <v>1</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>83</v>
       </c>
       <c r="B98">
-        <v>1</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>84</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>18</v>
       </c>
       <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>85</v>
       </c>
       <c r="B101">
-        <v>1</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>86</v>
       </c>
       <c r="B102">
-        <v>1</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>87</v>
       </c>
       <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>88</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>89</v>
       </c>
       <c r="B105">
-        <v>1</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>90</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>91</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>92</v>
       </c>
       <c r="B108">
-        <v>0</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>18</v>
       </c>
       <c r="B109">
-        <v>0</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>93</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>94</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>95</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>96</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>97</v>
       </c>
       <c r="B114">
-        <v>1</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>98</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>14</v>
       </c>
       <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>99</v>
       </c>
       <c r="B117">
-        <v>0</v>
-      </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>8</v>
       </c>
       <c r="B118">
-        <v>0</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>8</v>
       </c>
       <c r="B119">
-        <v>0</v>
-      </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>100</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>101</v>
       </c>
       <c r="B121">
-        <v>0</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>102</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>103</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>104</v>
       </c>
       <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>105</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>106</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>107</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>108</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>101</v>
       </c>
       <c r="B129">
-        <v>0</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>109</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>110</v>
       </c>
       <c r="B131">
-        <v>0</v>
-      </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>111</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>112</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>113</v>
       </c>
       <c r="B134">
-        <v>1</v>
-      </c>
-      <c r="C134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>114</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>115</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>8</v>
       </c>
       <c r="B137">
-        <v>0</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>8</v>
       </c>
       <c r="B138">
-        <v>0</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>116</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>117</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>101</v>
       </c>
       <c r="B141">
-        <v>0</v>
-      </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>118</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>119</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>120</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
-      <c r="C144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>121</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>122</v>
       </c>
       <c r="B146">
-        <v>1</v>
-      </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>40</v>
       </c>
       <c r="B147">
-        <v>0</v>
-      </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>123</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>124</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>125</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>126</v>
       </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>127</v>
       </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>128</v>
       </c>
-      <c r="B153">
-        <v>1</v>
-      </c>
-      <c r="C153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>129</v>
       </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-      <c r="C154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>130</v>
       </c>
-      <c r="B155">
-        <v>0</v>
-      </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>131</v>
       </c>
-      <c r="B156">
-        <v>1</v>
-      </c>
-      <c r="C156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>132</v>
       </c>
-      <c r="B157">
-        <v>0</v>
-      </c>
-      <c r="C157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>8</v>
       </c>
-      <c r="B158">
-        <v>0</v>
-      </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>8</v>
       </c>
-      <c r="B159">
-        <v>0</v>
-      </c>
-      <c r="C159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>133</v>
       </c>
-      <c r="B160">
-        <v>1</v>
-      </c>
-      <c r="C160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>134</v>
       </c>
-      <c r="B161">
-        <v>0</v>
-      </c>
-      <c r="C161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>135</v>
       </c>
-      <c r="B162">
-        <v>1</v>
-      </c>
-      <c r="C162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>136</v>
       </c>
-      <c r="B163">
-        <v>0</v>
-      </c>
-      <c r="C163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>137</v>
       </c>
-      <c r="B164">
-        <v>0</v>
-      </c>
-      <c r="C164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>14</v>
       </c>
-      <c r="B165">
-        <v>0</v>
-      </c>
-      <c r="C165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>138</v>
       </c>
-      <c r="B166">
-        <v>0</v>
-      </c>
-      <c r="C166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>139</v>
       </c>
-      <c r="B167">
-        <v>1</v>
-      </c>
-      <c r="C167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>140</v>
       </c>
-      <c r="B168">
-        <v>1</v>
-      </c>
-      <c r="C168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>141</v>
       </c>
-      <c r="B169">
-        <v>0</v>
-      </c>
-      <c r="C169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>142</v>
       </c>
-      <c r="B170">
-        <v>0</v>
-      </c>
-      <c r="C170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>143</v>
       </c>
-      <c r="B171">
-        <v>0</v>
-      </c>
-      <c r="C171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>144</v>
       </c>
-      <c r="B172">
-        <v>0</v>
-      </c>
-      <c r="C172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>145</v>
       </c>
-      <c r="B173">
-        <v>0</v>
-      </c>
-      <c r="C173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>146</v>
       </c>
-      <c r="B174">
-        <v>0</v>
-      </c>
-      <c r="C174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>147</v>
       </c>
-      <c r="B175">
-        <v>0</v>
-      </c>
-      <c r="C175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>148</v>
       </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-      <c r="C176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>149</v>
       </c>
-      <c r="B177">
-        <v>0</v>
-      </c>
-      <c r="C177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>150</v>
       </c>
-      <c r="B178">
-        <v>0</v>
-      </c>
-      <c r="C178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>151</v>
       </c>
-      <c r="B179">
-        <v>1</v>
-      </c>
-      <c r="C179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>152</v>
       </c>
-      <c r="B180">
-        <v>0</v>
-      </c>
-      <c r="C180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>153</v>
       </c>
-      <c r="B181">
-        <v>1</v>
-      </c>
-      <c r="C181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>154</v>
       </c>
-      <c r="B182">
-        <v>0</v>
-      </c>
-      <c r="C182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>155</v>
       </c>
-      <c r="B183">
-        <v>1</v>
-      </c>
-      <c r="C183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>156</v>
       </c>
-      <c r="B184">
-        <v>0</v>
-      </c>
-      <c r="C184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>157</v>
       </c>
-      <c r="B185">
-        <v>0</v>
-      </c>
-      <c r="C185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>158</v>
       </c>
-      <c r="B186">
-        <v>0</v>
-      </c>
-      <c r="C186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>159</v>
       </c>
-      <c r="B187">
-        <v>0</v>
-      </c>
-      <c r="C187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>160</v>
       </c>
-      <c r="B188">
-        <v>1</v>
-      </c>
-      <c r="C188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>161</v>
       </c>
-      <c r="B189">
-        <v>1</v>
-      </c>
-      <c r="C189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>8</v>
       </c>
-      <c r="B190">
-        <v>0</v>
-      </c>
-      <c r="C190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>5</v>
       </c>
-      <c r="B191">
-        <v>0</v>
-      </c>
-      <c r="C191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>18</v>
       </c>
-      <c r="B192">
-        <v>0</v>
-      </c>
-      <c r="C192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>162</v>
       </c>
-      <c r="B193">
-        <v>1</v>
-      </c>
-      <c r="C193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>163</v>
       </c>
-      <c r="B194">
-        <v>0</v>
-      </c>
-      <c r="C194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>8</v>
       </c>
-      <c r="B195">
-        <v>0</v>
-      </c>
-      <c r="C195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>164</v>
       </c>
-      <c r="B196">
-        <v>0</v>
-      </c>
-      <c r="C196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>165</v>
       </c>
-      <c r="B197">
-        <v>1</v>
-      </c>
-      <c r="C197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>66</v>
       </c>
-      <c r="B198">
-        <v>0</v>
-      </c>
-      <c r="C198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>166</v>
       </c>
-      <c r="B199">
-        <v>1</v>
-      </c>
-      <c r="C199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>167</v>
       </c>
-      <c r="B200">
-        <v>0</v>
-      </c>
-      <c r="C200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>168</v>
       </c>
-      <c r="B201">
-        <v>1</v>
-      </c>
-      <c r="C201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>169</v>
       </c>
-      <c r="B202">
-        <v>0</v>
-      </c>
-      <c r="C202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>170</v>
       </c>
-      <c r="B203">
-        <v>0</v>
-      </c>
-      <c r="C203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>171</v>
       </c>
-      <c r="B204">
-        <v>1</v>
-      </c>
-      <c r="C204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>172</v>
       </c>
-      <c r="B205">
-        <v>1</v>
-      </c>
-      <c r="C205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>173</v>
       </c>
-      <c r="B206">
-        <v>0</v>
-      </c>
-      <c r="C206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>174</v>
       </c>
-      <c r="B207">
-        <v>1</v>
-      </c>
-      <c r="C207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>175</v>
       </c>
-      <c r="B208">
-        <v>0</v>
-      </c>
-      <c r="C208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>8</v>
       </c>
-      <c r="B209">
-        <v>0</v>
-      </c>
-      <c r="C209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>18</v>
       </c>
-      <c r="B210">
-        <v>0</v>
-      </c>
-      <c r="C210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>176</v>
       </c>
-      <c r="B211">
-        <v>1</v>
-      </c>
-      <c r="C211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>177</v>
       </c>
-      <c r="B212">
-        <v>0</v>
-      </c>
-      <c r="C212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>178</v>
       </c>
-      <c r="B213">
-        <v>0</v>
-      </c>
-      <c r="C213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>179</v>
       </c>
-      <c r="B214">
-        <v>0</v>
-      </c>
-      <c r="C214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>180</v>
       </c>
-      <c r="B215">
-        <v>1</v>
-      </c>
-      <c r="C215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>181</v>
       </c>
-      <c r="B216">
-        <v>0</v>
-      </c>
-      <c r="C216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>182</v>
       </c>
-      <c r="B217">
-        <v>0</v>
-      </c>
-      <c r="C217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>183</v>
       </c>
-      <c r="B218">
-        <v>1</v>
-      </c>
-      <c r="C218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>184</v>
       </c>
-      <c r="B219">
-        <v>0</v>
-      </c>
-      <c r="C219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>185</v>
       </c>
-      <c r="B220">
-        <v>1</v>
-      </c>
-      <c r="C220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>186</v>
       </c>
-      <c r="B221">
-        <v>0</v>
-      </c>
-      <c r="C221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>187</v>
       </c>
-      <c r="B222">
-        <v>0</v>
-      </c>
-      <c r="C222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>18</v>
       </c>
-      <c r="B223">
-        <v>0</v>
-      </c>
-      <c r="C223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>182</v>
       </c>
-      <c r="B224">
-        <v>0</v>
-      </c>
-      <c r="C224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>188</v>
       </c>
-      <c r="B225">
-        <v>1</v>
-      </c>
-      <c r="C225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>189</v>
       </c>
-      <c r="B226">
-        <v>1</v>
-      </c>
-      <c r="C226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>18</v>
       </c>
-      <c r="B227">
-        <v>0</v>
-      </c>
-      <c r="C227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>190</v>
       </c>
-      <c r="B228">
-        <v>0</v>
-      </c>
-      <c r="C228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>8</v>
       </c>
-      <c r="B229">
-        <v>0</v>
-      </c>
-      <c r="C229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>191</v>
       </c>
-      <c r="B230">
-        <v>0</v>
-      </c>
-      <c r="C230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>192</v>
       </c>
-      <c r="B231">
-        <v>1</v>
-      </c>
-      <c r="C231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>193</v>
       </c>
-      <c r="B232">
-        <v>0</v>
-      </c>
-      <c r="C232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>194</v>
       </c>
-      <c r="B233">
-        <v>1</v>
-      </c>
-      <c r="C233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>195</v>
       </c>
-      <c r="B234">
-        <v>0</v>
-      </c>
-      <c r="C234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>196</v>
       </c>
-      <c r="B235">
-        <v>1</v>
-      </c>
-      <c r="C235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>197</v>
       </c>
-      <c r="B236">
-        <v>0</v>
-      </c>
-      <c r="C236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>198</v>
       </c>
-      <c r="B237">
-        <v>0</v>
-      </c>
-      <c r="C237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>199</v>
       </c>
-      <c r="B238">
-        <v>0</v>
-      </c>
-      <c r="C238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>200</v>
       </c>
-      <c r="B239">
-        <v>1</v>
-      </c>
-      <c r="C239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>201</v>
       </c>
-      <c r="B240">
-        <v>1</v>
-      </c>
-      <c r="C240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>202</v>
       </c>
-      <c r="B241">
-        <v>0</v>
-      </c>
-      <c r="C241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>203</v>
       </c>
-      <c r="B242">
-        <v>0</v>
-      </c>
-      <c r="C242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>204</v>
       </c>
-      <c r="B243">
-        <v>0</v>
-      </c>
-      <c r="C243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>205</v>
       </c>
-      <c r="B244">
-        <v>1</v>
-      </c>
-      <c r="C244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>206</v>
       </c>
-      <c r="B245">
-        <v>1</v>
-      </c>
-      <c r="C245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>207</v>
       </c>
-      <c r="B246">
-        <v>1</v>
-      </c>
-      <c r="C246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>208</v>
       </c>
-      <c r="B247">
-        <v>1</v>
-      </c>
-      <c r="C247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>209</v>
       </c>
-      <c r="B248">
-        <v>0</v>
-      </c>
-      <c r="C248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>5</v>
       </c>
-      <c r="B249">
-        <v>0</v>
-      </c>
-      <c r="C249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>210</v>
       </c>
-      <c r="B250">
-        <v>1</v>
-      </c>
-      <c r="C250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>211</v>
       </c>
-      <c r="B251">
-        <v>0</v>
-      </c>
-      <c r="C251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>212</v>
       </c>
-      <c r="B252">
-        <v>0</v>
-      </c>
-      <c r="C252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>213</v>
       </c>
-      <c r="B253">
-        <v>1</v>
-      </c>
-      <c r="C253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>214</v>
       </c>
-      <c r="B254">
-        <v>1</v>
-      </c>
-      <c r="C254">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>215</v>
       </c>
-      <c r="B255">
-        <v>0</v>
-      </c>
-      <c r="C255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>216</v>
       </c>
-      <c r="B256">
-        <v>1</v>
-      </c>
-      <c r="C256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>217</v>
       </c>
-      <c r="B257">
-        <v>0</v>
-      </c>
-      <c r="C257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>218</v>
       </c>
-      <c r="B258">
-        <v>0</v>
-      </c>
-      <c r="C258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>219</v>
       </c>
-      <c r="B259">
-        <v>0</v>
-      </c>
-      <c r="C259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>220</v>
       </c>
-      <c r="B260">
-        <v>1</v>
-      </c>
-      <c r="C260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>8</v>
       </c>
-      <c r="B261">
-        <v>0</v>
-      </c>
-      <c r="C261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>221</v>
       </c>
-      <c r="B262">
-        <v>1</v>
-      </c>
-      <c r="C262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>222</v>
       </c>
-      <c r="B263">
-        <v>0</v>
-      </c>
-      <c r="C263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>223</v>
       </c>
-      <c r="B264">
-        <v>1</v>
-      </c>
-      <c r="C264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>224</v>
       </c>
-      <c r="B265">
-        <v>1</v>
-      </c>
-      <c r="C265">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>225</v>
       </c>
-      <c r="B266">
-        <v>1</v>
-      </c>
-      <c r="C266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>226</v>
       </c>
-      <c r="B267">
-        <v>0</v>
-      </c>
-      <c r="C267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>227</v>
       </c>
-      <c r="B268">
-        <v>1</v>
-      </c>
-      <c r="C268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>228</v>
       </c>
-      <c r="B269">
-        <v>0</v>
-      </c>
-      <c r="C269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>229</v>
       </c>
-      <c r="B270">
-        <v>0</v>
-      </c>
-      <c r="C270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>230</v>
       </c>
-      <c r="B271">
-        <v>0</v>
-      </c>
-      <c r="C271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>18</v>
       </c>
-      <c r="B272">
-        <v>0</v>
-      </c>
-      <c r="C272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>231</v>
       </c>
-      <c r="B273">
-        <v>1</v>
-      </c>
-      <c r="C273">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>8</v>
       </c>
-      <c r="B274">
-        <v>0</v>
-      </c>
-      <c r="C274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>232</v>
       </c>
-      <c r="B275">
-        <v>0</v>
-      </c>
-      <c r="C275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>233</v>
       </c>
-      <c r="B276">
-        <v>0</v>
-      </c>
-      <c r="C276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>234</v>
       </c>
-      <c r="B277">
-        <v>0</v>
-      </c>
-      <c r="C277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>235</v>
       </c>
-      <c r="B278">
-        <v>0</v>
-      </c>
-      <c r="C278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>236</v>
       </c>
-      <c r="B279">
-        <v>1</v>
-      </c>
-      <c r="C279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>237</v>
       </c>
-      <c r="B280">
-        <v>0</v>
-      </c>
-      <c r="C280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>238</v>
       </c>
-      <c r="B281">
-        <v>0</v>
-      </c>
-      <c r="C281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>18</v>
       </c>
-      <c r="B282">
-        <v>0</v>
-      </c>
-      <c r="C282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>239</v>
       </c>
-      <c r="B283">
-        <v>0</v>
-      </c>
-      <c r="C283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>240</v>
       </c>
-      <c r="B284">
-        <v>0</v>
-      </c>
-      <c r="C284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>241</v>
       </c>
-      <c r="B285">
-        <v>1</v>
-      </c>
-      <c r="C285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>8</v>
       </c>
-      <c r="B286">
-        <v>0</v>
-      </c>
-      <c r="C286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>242</v>
       </c>
-      <c r="B287">
-        <v>0</v>
-      </c>
-      <c r="C287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>243</v>
       </c>
-      <c r="B288">
-        <v>0</v>
-      </c>
-      <c r="C288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>244</v>
       </c>
-      <c r="B289">
-        <v>0</v>
-      </c>
-      <c r="C289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>8</v>
       </c>
-      <c r="B290">
-        <v>0</v>
-      </c>
-      <c r="C290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>245</v>
       </c>
-      <c r="B291">
-        <v>1</v>
-      </c>
-      <c r="C291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>246</v>
       </c>
-      <c r="B292">
-        <v>1</v>
-      </c>
-      <c r="C292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>30</v>
       </c>
-      <c r="B293">
-        <v>1</v>
-      </c>
-      <c r="C293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>247</v>
       </c>
-      <c r="B294">
-        <v>1</v>
-      </c>
-      <c r="C294">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>248</v>
       </c>
-      <c r="B295">
-        <v>0</v>
-      </c>
-      <c r="C295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>249</v>
       </c>
-      <c r="B296">
-        <v>1</v>
-      </c>
-      <c r="C296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>8</v>
       </c>
-      <c r="B297">
-        <v>0</v>
-      </c>
-      <c r="C297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>250</v>
       </c>
-      <c r="B298">
-        <v>0</v>
-      </c>
-      <c r="C298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>18</v>
       </c>
-      <c r="B299">
-        <v>0</v>
-      </c>
-      <c r="C299">
-        <v>0</v>
-      </c>
       <c r="I299">
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>167</v>
       </c>
-      <c r="B300">
-        <v>0</v>
-      </c>
-      <c r="C300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>251</v>
-      </c>
-      <c r="B301">
-        <v>1</v>
-      </c>
-      <c r="C301">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5967,18 +4610,18 @@
       <selection activeCell="B452" sqref="B452"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>253</v>
       </c>
@@ -5986,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>254</v>
       </c>
@@ -5994,7 +4637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -6002,7 +4645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>255</v>
       </c>
@@ -6010,7 +4653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>256</v>
       </c>
@@ -6018,7 +4661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>257</v>
       </c>
@@ -6026,7 +4669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>258</v>
       </c>
@@ -6034,7 +4677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>259</v>
       </c>
@@ -6042,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6050,7 +4693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -6058,7 +4701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>145</v>
       </c>
@@ -6066,7 +4709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>260</v>
       </c>
@@ -6074,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>261</v>
       </c>
@@ -6082,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -6090,7 +4733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>262</v>
       </c>
@@ -6098,7 +4741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6106,7 +4749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>263</v>
       </c>
@@ -6114,7 +4757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>203</v>
       </c>
@@ -6122,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>264</v>
       </c>
@@ -6130,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>265</v>
       </c>
@@ -6138,7 +4781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -6146,7 +4789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>266</v>
       </c>
@@ -6154,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>267</v>
       </c>
@@ -6162,7 +4805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>268</v>
       </c>
@@ -6170,7 +4813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>269</v>
       </c>
@@ -6178,7 +4821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>270</v>
       </c>
@@ -6186,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>271</v>
       </c>
@@ -6194,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>272</v>
       </c>
@@ -6202,7 +4845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -6210,7 +4853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -6218,7 +4861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -6226,7 +4869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>273</v>
       </c>
@@ -6234,7 +4877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>274</v>
       </c>
@@ -6242,7 +4885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -6250,7 +4893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>275</v>
       </c>
@@ -6258,7 +4901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>276</v>
       </c>
@@ -6266,7 +4909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>277</v>
       </c>
@@ -6274,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>278</v>
       </c>
@@ -6282,7 +4925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>279</v>
       </c>
@@ -6290,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>280</v>
       </c>
@@ -6298,7 +4941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>281</v>
       </c>
@@ -6306,7 +4949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>282</v>
       </c>
@@ -6314,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -6322,7 +4965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>283</v>
       </c>
@@ -6330,7 +4973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>284</v>
       </c>
@@ -6338,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>285</v>
       </c>
@@ -6346,7 +4989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>286</v>
       </c>
@@ -6354,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>287</v>
       </c>
@@ -6362,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>288</v>
       </c>
@@ -6370,7 +5013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>289</v>
       </c>
@@ -6378,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>290</v>
       </c>
@@ -6386,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>291</v>
       </c>
@@ -6394,7 +5037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -6402,7 +5045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>292</v>
       </c>
@@ -6410,7 +5053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -6418,7 +5061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>293</v>
       </c>
@@ -6426,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>294</v>
       </c>
@@ -6434,7 +5077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>295</v>
       </c>
@@ -6442,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>296</v>
       </c>
@@ -6450,7 +5093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>297</v>
       </c>
@@ -6458,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>298</v>
       </c>
@@ -6466,7 +5109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>299</v>
       </c>
@@ -6474,7 +5117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>300</v>
       </c>
@@ -6482,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>18</v>
       </c>
@@ -6490,7 +5133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>301</v>
       </c>
@@ -6498,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>302</v>
       </c>
@@ -6506,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>303</v>
       </c>
@@ -6514,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>304</v>
       </c>
@@ -6522,7 +5165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>305</v>
       </c>
@@ -6530,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>306</v>
       </c>
@@ -6538,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>307</v>
       </c>
@@ -6546,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>308</v>
       </c>
@@ -6554,7 +5197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>309</v>
       </c>
@@ -6562,7 +5205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>310</v>
       </c>
@@ -6570,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -6578,7 +5221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>311</v>
       </c>
@@ -6586,7 +5229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>312</v>
       </c>
@@ -6594,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>313</v>
       </c>
@@ -6602,7 +5245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>314</v>
       </c>
@@ -6610,7 +5253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>315</v>
       </c>
@@ -6618,7 +5261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>316</v>
       </c>
@@ -6626,7 +5269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -6634,7 +5277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>317</v>
       </c>
@@ -6642,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>318</v>
       </c>
@@ -6650,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>319</v>
       </c>
@@ -6658,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>320</v>
       </c>
@@ -6666,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>321</v>
       </c>
@@ -6674,7 +5317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>322</v>
       </c>
@@ -6682,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>323</v>
       </c>
@@ -6690,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>324</v>
       </c>
@@ -6698,7 +5341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>325</v>
       </c>
@@ -6706,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>326</v>
       </c>
@@ -6714,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>327</v>
       </c>
@@ -6722,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>328</v>
       </c>
@@ -6730,7 +5373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>329</v>
       </c>
@@ -6738,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>330</v>
       </c>
@@ -6746,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>331</v>
       </c>
@@ -6754,7 +5397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>332</v>
       </c>
@@ -6762,7 +5405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>333</v>
       </c>
@@ -6770,7 +5413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>334</v>
       </c>
@@ -6778,7 +5421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>40</v>
       </c>
@@ -6786,7 +5429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>41</v>
       </c>
@@ -6794,7 +5437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>335</v>
       </c>
@@ -6802,7 +5445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -6810,7 +5453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>336</v>
       </c>
@@ -6818,7 +5461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>337</v>
       </c>
@@ -6826,7 +5469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>338</v>
       </c>
@@ -6834,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>339</v>
       </c>
@@ -6842,7 +5485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>340</v>
       </c>
@@ -6850,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>341</v>
       </c>
@@ -6858,7 +5501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>342</v>
       </c>
@@ -6866,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>343</v>
       </c>
@@ -6874,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>344</v>
       </c>
@@ -6882,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>345</v>
       </c>
@@ -6890,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>346</v>
       </c>
@@ -6898,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>347</v>
       </c>
@@ -6906,7 +5549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>348</v>
       </c>
@@ -6914,7 +5557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>349</v>
       </c>
@@ -6922,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>350</v>
       </c>
@@ -6930,7 +5573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>351</v>
       </c>
@@ -6938,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>40</v>
       </c>
@@ -6946,7 +5589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>352</v>
       </c>
@@ -6954,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>353</v>
       </c>
@@ -6962,7 +5605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -6970,7 +5613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>354</v>
       </c>
@@ -6978,7 +5621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>355</v>
       </c>
@@ -6986,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -6994,7 +5637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>18</v>
       </c>
@@ -7002,7 +5645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>356</v>
       </c>
@@ -7010,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>357</v>
       </c>
@@ -7018,7 +5661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>358</v>
       </c>
@@ -7026,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>359</v>
       </c>
@@ -7034,7 +5677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>360</v>
       </c>
@@ -7042,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>361</v>
       </c>
@@ -7050,7 +5693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>362</v>
       </c>
@@ -7058,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>363</v>
       </c>
@@ -7066,7 +5709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>364</v>
       </c>
@@ -7074,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -7082,7 +5725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>365</v>
       </c>
@@ -7090,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>18</v>
       </c>
@@ -7098,15 +5741,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>366</v>
       </c>
       <c r="B142" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>367</v>
       </c>
@@ -7114,7 +5757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>368</v>
       </c>
@@ -7122,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>369</v>
       </c>
@@ -7130,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>370</v>
       </c>
@@ -7138,7 +5781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>371</v>
       </c>
@@ -7146,7 +5789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>372</v>
       </c>
@@ -7154,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>373</v>
       </c>
@@ -7162,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>374</v>
       </c>
@@ -7170,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>375</v>
       </c>
@@ -7178,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>376</v>
       </c>
@@ -7186,7 +5829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>377</v>
       </c>
@@ -7194,7 +5837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>378</v>
       </c>
@@ -7202,7 +5845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>379</v>
       </c>
@@ -7210,7 +5853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -7218,7 +5861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>380</v>
       </c>
@@ -7226,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>381</v>
       </c>
@@ -7234,7 +5877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>382</v>
       </c>
@@ -7242,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>383</v>
       </c>
@@ -7250,7 +5893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>384</v>
       </c>
@@ -7258,7 +5901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>385</v>
       </c>
@@ -7266,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>386</v>
       </c>
@@ -7274,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>387</v>
       </c>
@@ -7282,7 +5925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>388</v>
       </c>
@@ -7290,7 +5933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>389</v>
       </c>
@@ -7298,7 +5941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>390</v>
       </c>
@@ -7306,7 +5949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>391</v>
       </c>
@@ -7314,7 +5957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>392</v>
       </c>
@@ -7322,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>393</v>
       </c>
@@ -7330,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>394</v>
       </c>
@@ -7338,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>395</v>
       </c>
@@ -7346,7 +5989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>396</v>
       </c>
@@ -7354,7 +5997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>145</v>
       </c>
@@ -7362,7 +6005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>397</v>
       </c>
@@ -7370,7 +6013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>8</v>
       </c>
@@ -7378,7 +6021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>398</v>
       </c>
@@ -7386,7 +6029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>399</v>
       </c>
@@ -7394,7 +6037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>400</v>
       </c>
@@ -7402,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>401</v>
       </c>
@@ -7410,7 +6053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>18</v>
       </c>
@@ -7418,7 +6061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>402</v>
       </c>
@@ -7426,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>18</v>
       </c>
@@ -7434,7 +6077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>403</v>
       </c>
@@ -7442,7 +6085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>404</v>
       </c>
@@ -7450,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>405</v>
       </c>
@@ -7458,7 +6101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>406</v>
       </c>
@@ -7466,7 +6109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>407</v>
       </c>
@@ -7474,7 +6117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>408</v>
       </c>
@@ -7482,7 +6125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>409</v>
       </c>
@@ -7490,7 +6133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>410</v>
       </c>
@@ -7498,7 +6141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>18</v>
       </c>
@@ -7506,7 +6149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>8</v>
       </c>
@@ -7514,7 +6157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>411</v>
       </c>
@@ -7522,7 +6165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>412</v>
       </c>
@@ -7530,7 +6173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>413</v>
       </c>
@@ -7538,7 +6181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>414</v>
       </c>
@@ -7546,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>415</v>
       </c>
@@ -7554,7 +6197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>416</v>
       </c>
@@ -7562,7 +6205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>417</v>
       </c>
@@ -7570,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>418</v>
       </c>
@@ -7578,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>419</v>
       </c>
@@ -7586,7 +6229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>420</v>
       </c>
@@ -7594,7 +6237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>14</v>
       </c>
@@ -7602,7 +6245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>8</v>
       </c>
@@ -7610,7 +6253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>421</v>
       </c>
@@ -7618,7 +6261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>422</v>
       </c>
@@ -7626,7 +6269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>423</v>
       </c>
@@ -7634,7 +6277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>5</v>
       </c>
@@ -7642,7 +6285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>424</v>
       </c>
@@ -7650,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>425</v>
       </c>
@@ -7658,7 +6301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>426</v>
       </c>
@@ -7666,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -7674,7 +6317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>427</v>
       </c>
@@ -7682,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>428</v>
       </c>
@@ -7690,7 +6333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>429</v>
       </c>
@@ -7698,7 +6341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>430</v>
       </c>
@@ -7706,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>431</v>
       </c>
@@ -7714,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>432</v>
       </c>
@@ -7722,7 +6365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>433</v>
       </c>
@@ -7730,7 +6373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>434</v>
       </c>
@@ -7738,7 +6381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>435</v>
       </c>
@@ -7746,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>436</v>
       </c>
@@ -7754,7 +6397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>14</v>
       </c>
@@ -7762,7 +6405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>437</v>
       </c>
@@ -7770,7 +6413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>438</v>
       </c>
@@ -7778,7 +6421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>439</v>
       </c>
@@ -7786,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>440</v>
       </c>
@@ -7794,7 +6437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>441</v>
       </c>
@@ -7802,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>442</v>
       </c>
@@ -7810,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>443</v>
       </c>
@@ -7818,7 +6461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>444</v>
       </c>
@@ -7826,7 +6469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>445</v>
       </c>
@@ -7834,7 +6477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>446</v>
       </c>
@@ -7842,7 +6485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>447</v>
       </c>
@@ -7850,7 +6493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>448</v>
       </c>
@@ -7858,7 +6501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>449</v>
       </c>
@@ -7866,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>450</v>
       </c>
@@ -7874,7 +6517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>451</v>
       </c>
@@ -7882,7 +6525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>56</v>
       </c>
@@ -7890,7 +6533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>452</v>
       </c>
@@ -7898,7 +6541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>453</v>
       </c>
@@ -7906,7 +6549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>454</v>
       </c>
@@ -7914,7 +6557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>455</v>
       </c>
@@ -7922,7 +6565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>456</v>
       </c>
@@ -7930,7 +6573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>457</v>
       </c>
@@ -7938,7 +6581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>458</v>
       </c>
@@ -7946,7 +6589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>8</v>
       </c>
@@ -7954,7 +6597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>459</v>
       </c>
@@ -7962,7 +6605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>460</v>
       </c>
@@ -7970,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>461</v>
       </c>
@@ -7978,7 +6621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>462</v>
       </c>
@@ -7986,7 +6629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>463</v>
       </c>
@@ -7994,7 +6637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>8</v>
       </c>
@@ -8002,7 +6645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>464</v>
       </c>
@@ -8010,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>465</v>
       </c>
@@ -8018,7 +6661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>466</v>
       </c>
@@ -8026,7 +6669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>467</v>
       </c>
@@ -8034,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>468</v>
       </c>
@@ -8042,7 +6685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>469</v>
       </c>
@@ -8050,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>470</v>
       </c>
@@ -8058,7 +6701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>8</v>
       </c>
@@ -8066,7 +6709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>471</v>
       </c>
@@ -8074,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>472</v>
       </c>
@@ -8082,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>473</v>
       </c>
@@ -8090,7 +6733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>18</v>
       </c>
@@ -8098,7 +6741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>474</v>
       </c>
@@ -8106,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>475</v>
       </c>
@@ -8114,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>476</v>
       </c>
@@ -8122,7 +6765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>477</v>
       </c>
@@ -8130,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>18</v>
       </c>
@@ -8138,7 +6781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>8</v>
       </c>
@@ -8146,7 +6789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>478</v>
       </c>
@@ -8154,7 +6797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>291</v>
       </c>
@@ -8162,7 +6805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>479</v>
       </c>
@@ -8170,7 +6813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>480</v>
       </c>
@@ -8178,7 +6821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>481</v>
       </c>
@@ -8186,7 +6829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>482</v>
       </c>
@@ -8194,7 +6837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>483</v>
       </c>
@@ -8202,7 +6845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>484</v>
       </c>
@@ -8210,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>485</v>
       </c>
@@ -8218,7 +6861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>486</v>
       </c>
@@ -8226,7 +6869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>18</v>
       </c>
@@ -8234,7 +6877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>40</v>
       </c>
@@ -8242,7 +6885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>487</v>
       </c>
@@ -8250,7 +6893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>488</v>
       </c>
@@ -8258,7 +6901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>489</v>
       </c>
@@ -8266,7 +6909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>490</v>
       </c>
@@ -8274,7 +6917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>491</v>
       </c>
@@ -8282,7 +6925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>492</v>
       </c>
@@ -8290,7 +6933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>493</v>
       </c>
@@ -8298,7 +6941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>494</v>
       </c>
@@ -8306,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>495</v>
       </c>
@@ -8314,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>496</v>
       </c>
@@ -8322,7 +6965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>497</v>
       </c>
@@ -8330,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>498</v>
       </c>
@@ -8338,7 +6981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>9</v>
       </c>
@@ -8346,7 +6989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>499</v>
       </c>
@@ -8354,7 +6997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>500</v>
       </c>
@@ -8362,7 +7005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>8</v>
       </c>
@@ -8370,7 +7013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>501</v>
       </c>
@@ -8378,7 +7021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>56</v>
       </c>
@@ -8386,7 +7029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>40</v>
       </c>
@@ -8394,7 +7037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>502</v>
       </c>
@@ -8402,7 +7045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>503</v>
       </c>
@@ -8410,7 +7053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>504</v>
       </c>
@@ -8418,7 +7061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>505</v>
       </c>
@@ -8426,7 +7069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>506</v>
       </c>
@@ -8434,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>507</v>
       </c>
@@ -8442,7 +7085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>508</v>
       </c>
@@ -8450,7 +7093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>509</v>
       </c>
@@ -8458,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>510</v>
       </c>
@@ -8466,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>511</v>
       </c>
@@ -8474,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>512</v>
       </c>
@@ -8482,7 +7125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>8</v>
       </c>
@@ -8490,7 +7133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>513</v>
       </c>
@@ -8498,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>514</v>
       </c>
@@ -8506,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>515</v>
       </c>
@@ -8514,7 +7157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>8</v>
       </c>
@@ -8522,7 +7165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>516</v>
       </c>
@@ -8530,7 +7173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>8</v>
       </c>
@@ -8538,7 +7181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>291</v>
       </c>
@@ -8546,7 +7189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>517</v>
       </c>
@@ -8554,7 +7197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>18</v>
       </c>
@@ -8562,7 +7205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>518</v>
       </c>
@@ -8570,7 +7213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>519</v>
       </c>
@@ -8578,7 +7221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>520</v>
       </c>
@@ -8586,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>521</v>
       </c>
@@ -8594,7 +7237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>522</v>
       </c>
@@ -8602,7 +7245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>523</v>
       </c>
@@ -8610,7 +7253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>524</v>
       </c>
@@ -8618,7 +7261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>525</v>
       </c>
@@ -8626,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>41</v>
       </c>
@@ -8634,7 +7277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>526</v>
       </c>
@@ -8642,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>527</v>
       </c>
@@ -8650,7 +7293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>14</v>
       </c>
@@ -8658,7 +7301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>528</v>
       </c>
@@ -8666,7 +7309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>529</v>
       </c>
@@ -8674,7 +7317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>530</v>
       </c>
@@ -8682,7 +7325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>182</v>
       </c>
@@ -8690,7 +7333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>531</v>
       </c>
@@ -8698,7 +7341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>9</v>
       </c>
@@ -8706,7 +7349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>532</v>
       </c>
@@ -8714,7 +7357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>533</v>
       </c>
@@ -8722,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>534</v>
       </c>
@@ -8730,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>18</v>
       </c>
@@ -8738,7 +7381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>535</v>
       </c>
@@ -8746,7 +7389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>56</v>
       </c>
@@ -8754,7 +7397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>536</v>
       </c>
@@ -8762,7 +7405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>8</v>
       </c>
@@ -8770,7 +7413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>18</v>
       </c>
@@ -8778,7 +7421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>537</v>
       </c>
@@ -8786,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>538</v>
       </c>
@@ -8794,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>539</v>
       </c>
@@ -8802,7 +7445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>540</v>
       </c>
@@ -8810,7 +7453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>541</v>
       </c>
@@ -8818,7 +7461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>542</v>
       </c>
@@ -8826,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>543</v>
       </c>
@@ -8834,7 +7477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>544</v>
       </c>
@@ -8842,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>545</v>
       </c>
@@ -8850,7 +7493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>546</v>
       </c>
@@ -8858,7 +7501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>8</v>
       </c>
@@ -8866,7 +7509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>547</v>
       </c>
@@ -8874,7 +7517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>548</v>
       </c>
@@ -8882,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>549</v>
       </c>
@@ -8890,7 +7533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>550</v>
       </c>
@@ -8898,7 +7541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>551</v>
       </c>
@@ -8906,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>552</v>
       </c>
@@ -8914,7 +7557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>553</v>
       </c>
@@ -8922,7 +7565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>554</v>
       </c>
@@ -8930,7 +7573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>555</v>
       </c>
@@ -8938,7 +7581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>556</v>
       </c>
@@ -8946,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>18</v>
       </c>
@@ -8954,7 +7597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>557</v>
       </c>
@@ -8962,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>558</v>
       </c>
@@ -8970,7 +7613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>559</v>
       </c>
@@ -8978,7 +7621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>560</v>
       </c>
@@ -8986,7 +7629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>561</v>
       </c>
@@ -8994,7 +7637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>562</v>
       </c>
@@ -9002,7 +7645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>563</v>
       </c>
@@ -9010,7 +7653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>564</v>
       </c>
@@ -9018,7 +7661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>565</v>
       </c>
@@ -9026,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>566</v>
       </c>
@@ -9034,7 +7677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>567</v>
       </c>
@@ -9042,7 +7685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>18</v>
       </c>
@@ -9050,7 +7693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>568</v>
       </c>
@@ -9058,7 +7701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>569</v>
       </c>
@@ -9066,7 +7709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>570</v>
       </c>
@@ -9074,7 +7717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>66</v>
       </c>
@@ -9082,7 +7725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>571</v>
       </c>
@@ -9090,7 +7733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>572</v>
       </c>
@@ -9098,7 +7741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>573</v>
       </c>
@@ -9106,7 +7749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>574</v>
       </c>
@@ -9114,7 +7757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>575</v>
       </c>
@@ -9122,7 +7765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>576</v>
       </c>
@@ -9130,7 +7773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>577</v>
       </c>
@@ -9138,7 +7781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>578</v>
       </c>
@@ -9146,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>579</v>
       </c>
@@ -9154,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>580</v>
       </c>
@@ -9162,7 +7805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>581</v>
       </c>
@@ -9170,7 +7813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>582</v>
       </c>
@@ -9178,7 +7821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>583</v>
       </c>
@@ -9186,7 +7829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>584</v>
       </c>
@@ -9194,7 +7837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>585</v>
       </c>
@@ -9202,7 +7845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>586</v>
       </c>
@@ -9210,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>587</v>
       </c>
@@ -9218,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>8</v>
       </c>
@@ -9226,7 +7869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>588</v>
       </c>
@@ -9234,7 +7877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>589</v>
       </c>
@@ -9242,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>8</v>
       </c>
@@ -9250,7 +7893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>590</v>
       </c>
@@ -9258,7 +7901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>18</v>
       </c>
@@ -9266,7 +7909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>591</v>
       </c>
@@ -9274,7 +7917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>592</v>
       </c>
@@ -9282,7 +7925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>593</v>
       </c>
@@ -9290,7 +7933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>18</v>
       </c>
@@ -9298,7 +7941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>594</v>
       </c>
@@ -9306,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>595</v>
       </c>
@@ -9314,7 +7957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>596</v>
       </c>
@@ -9322,7 +7965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>597</v>
       </c>
@@ -9330,7 +7973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>598</v>
       </c>
@@ -9338,7 +7981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>599</v>
       </c>
@@ -9346,7 +7989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>600</v>
       </c>
@@ -9354,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>601</v>
       </c>
@@ -9362,7 +8005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>602</v>
       </c>
@@ -9370,7 +8013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>8</v>
       </c>
@@ -9378,7 +8021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>603</v>
       </c>
@@ -9386,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>604</v>
       </c>
@@ -9394,7 +8037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>605</v>
       </c>
@@ -9402,7 +8045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>41</v>
       </c>
@@ -9410,7 +8053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>606</v>
       </c>
@@ -9418,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>607</v>
       </c>
@@ -9426,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>608</v>
       </c>
@@ -9434,7 +8077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>609</v>
       </c>
@@ -9442,7 +8085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>610</v>
       </c>
@@ -9450,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>611</v>
       </c>
@@ -9458,7 +8101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>612</v>
       </c>
@@ -9466,7 +8109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>613</v>
       </c>
@@ -9474,7 +8117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>614</v>
       </c>
@@ -9482,7 +8125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>615</v>
       </c>
@@ -9490,7 +8133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>616</v>
       </c>
@@ -9498,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>8</v>
       </c>
@@ -9506,7 +8149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>617</v>
       </c>
@@ -9514,7 +8157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>618</v>
       </c>
@@ -9522,7 +8165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>619</v>
       </c>
@@ -9530,7 +8173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>620</v>
       </c>
@@ -9538,7 +8181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>621</v>
       </c>
@@ -9546,7 +8189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>622</v>
       </c>
@@ -9554,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>623</v>
       </c>
@@ -9562,7 +8205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>624</v>
       </c>
@@ -9570,7 +8213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>625</v>
       </c>

--- a/era uma vez em hollywood.xlsx
+++ b/era uma vez em hollywood.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitor Bandeira\Desktop\Ciência dos dados\Projeto2\p2_datascience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F41481-8CAD-4D72-ABDB-DB0C8084E42C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC30EC39-397B-461A-9682-B60CC30A059D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2283,7 +2283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2292,6 +2292,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2632,7 +2633,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="90" workbookViewId="0">
+      <selection activeCell="E226" sqref="E226"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3842,746 +3845,1193 @@
       <c r="A151" t="s">
         <v>126</v>
       </c>
+      <c r="B151" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>127</v>
       </c>
+      <c r="B152" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>128</v>
       </c>
+      <c r="B153" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>129</v>
       </c>
+      <c r="B154" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>130</v>
       </c>
+      <c r="B155" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>131</v>
       </c>
+      <c r="B156" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>132</v>
       </c>
+      <c r="B157" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>8</v>
       </c>
+      <c r="B158" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>8</v>
       </c>
+      <c r="B159" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B166" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B167" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B168" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B169" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B170" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B171" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B172" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B173" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B174" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B175" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B176" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B177" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B178" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B179" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B180" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B181" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B182" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B183" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B184" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B185" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B186" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B187" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B188" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B189" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B190" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B191" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B192" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B193" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B194" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B195" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B196" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B197" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B198" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B200" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B201" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B202" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B203" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B204" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B205" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B206" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B207" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B208" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B209" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B210" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B211" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B212" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B213" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B214" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B215" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B216" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B217" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B218" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B219" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B220" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B221" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B222" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B223" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B224" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B225" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B226" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B227" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B228" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B229" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B230" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B231" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B232" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B233" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B234" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B235" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B236" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B237" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B238" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B239" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B240" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B241" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B242" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B243" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B244" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B245" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B246" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B247" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B248" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B249" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B250" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B251" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B252" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B253" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B254" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B255" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B256" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B257" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B258" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B259" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B260" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B261" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B262" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B263" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B264" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B265" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B266" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B267" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B268" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B269" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B270" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B271" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B272" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B273" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B274" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B275" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B276" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B277" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B278" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B279" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B280" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B281" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B282" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B283" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B284" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B285" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B286" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B287" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>243</v>
+      </c>
+      <c r="B288" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>244</v>
       </c>
+      <c r="B289" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>8</v>
       </c>
+      <c r="B290" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>245</v>
       </c>
+      <c r="B291" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>246</v>
       </c>
+      <c r="B292" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>30</v>
       </c>
+      <c r="B293" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>247</v>
       </c>
+      <c r="B294" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>248</v>
       </c>
+      <c r="B295" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>249</v>
       </c>
+      <c r="B296" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>8</v>
       </c>
+      <c r="B297" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>250</v>
       </c>
+      <c r="B298" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>18</v>
       </c>
+      <c r="B299" s="4">
+        <v>3</v>
+      </c>
       <c r="I299">
         <v>0</v>
       </c>
@@ -4590,10 +5040,16 @@
       <c r="A300" t="s">
         <v>167</v>
       </c>
+      <c r="B300" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>251</v>
+      </c>
+      <c r="B301" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4606,7 +5062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B451"/>
   <sheetViews>
-    <sheetView zoomScale="175" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScale="175" workbookViewId="0">
       <selection activeCell="B452" sqref="B452"/>
     </sheetView>
   </sheetViews>

--- a/era uma vez em hollywood.xlsx
+++ b/era uma vez em hollywood.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitor Bandeira\Desktop\Ciência dos dados\Projeto2\p2_datascience\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizbernardino/Documents/p2_datascience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC30EC39-397B-461A-9682-B60CC30A059D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22349DA-D0DE-BD4B-92A9-9EEC9E54F3D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="628">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2225,6 +2225,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Classificação</t>
   </si>
 </sst>
 </file>
@@ -2631,25 +2634,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I301"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="90" workbookViewId="0">
-      <selection activeCell="E226" sqref="E226"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="47.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2657,7 +2662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2665,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2673,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2681,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2689,7 +2694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2697,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2705,7 +2710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2713,7 +2718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2721,7 +2726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2729,7 +2734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2737,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2745,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2753,7 +2758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2761,7 +2766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2769,7 +2774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2777,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2785,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2793,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2801,7 +2806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2809,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2817,7 +2822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2825,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2833,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2841,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2849,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2857,7 +2862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2865,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2873,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2881,7 +2886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -2889,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -2897,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -2905,7 +2910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -2913,7 +2918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -2921,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -2929,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2937,7 +2942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -2945,7 +2950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -2953,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -2961,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -2969,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -2977,7 +2982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -2985,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -2993,7 +2998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -3001,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -3009,7 +3014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -3017,7 +3022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -3025,7 +3030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -3033,7 +3038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -3041,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -3049,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -3057,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -3065,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -3073,7 +3078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -3081,7 +3086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -3089,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>48</v>
       </c>
@@ -3097,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -3105,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>50</v>
       </c>
@@ -3113,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -3121,7 +3126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>52</v>
       </c>
@@ -3129,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>53</v>
       </c>
@@ -3137,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -3145,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -3153,7 +3158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -3161,7 +3166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -3169,7 +3174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>56</v>
       </c>
@@ -3177,7 +3182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>57</v>
       </c>
@@ -3185,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>58</v>
       </c>
@@ -3193,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>59</v>
       </c>
@@ -3201,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>60</v>
       </c>
@@ -3209,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>61</v>
       </c>
@@ -3217,7 +3222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>62</v>
       </c>
@@ -3225,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>63</v>
       </c>
@@ -3233,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -3241,7 +3246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>64</v>
       </c>
@@ -3249,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -3257,7 +3262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>65</v>
       </c>
@@ -3265,7 +3270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>66</v>
       </c>
@@ -3273,7 +3278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>67</v>
       </c>
@@ -3281,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>68</v>
       </c>
@@ -3289,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>69</v>
       </c>
@@ -3297,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>70</v>
       </c>
@@ -3305,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>41</v>
       </c>
@@ -3313,7 +3318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>71</v>
       </c>
@@ -3321,7 +3326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>72</v>
       </c>
@@ -3329,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>73</v>
       </c>
@@ -3337,7 +3342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>74</v>
       </c>
@@ -3345,7 +3350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>75</v>
       </c>
@@ -3353,7 +3358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>76</v>
       </c>
@@ -3361,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>77</v>
       </c>
@@ -3369,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>78</v>
       </c>
@@ -3377,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>79</v>
       </c>
@@ -3385,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -3393,7 +3398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>80</v>
       </c>
@@ -3401,7 +3406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>81</v>
       </c>
@@ -3409,7 +3414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>82</v>
       </c>
@@ -3417,7 +3422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>83</v>
       </c>
@@ -3425,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>84</v>
       </c>
@@ -3433,7 +3438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>18</v>
       </c>
@@ -3441,7 +3446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>85</v>
       </c>
@@ -3449,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>86</v>
       </c>
@@ -3457,7 +3462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>87</v>
       </c>
@@ -3465,7 +3470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>88</v>
       </c>
@@ -3473,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>89</v>
       </c>
@@ -3481,7 +3486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>90</v>
       </c>
@@ -3489,7 +3494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>91</v>
       </c>
@@ -3497,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>92</v>
       </c>
@@ -3505,7 +3510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -3513,7 +3518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>93</v>
       </c>
@@ -3521,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>94</v>
       </c>
@@ -3529,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>95</v>
       </c>
@@ -3537,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>96</v>
       </c>
@@ -3545,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>97</v>
       </c>
@@ -3553,7 +3558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>98</v>
       </c>
@@ -3561,7 +3566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>14</v>
       </c>
@@ -3569,7 +3574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>99</v>
       </c>
@@ -3577,7 +3582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -3585,7 +3590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -3593,7 +3598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>100</v>
       </c>
@@ -3601,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>101</v>
       </c>
@@ -3609,7 +3614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>102</v>
       </c>
@@ -3617,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>103</v>
       </c>
@@ -3625,7 +3630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>104</v>
       </c>
@@ -3633,7 +3638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>105</v>
       </c>
@@ -3641,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>106</v>
       </c>
@@ -3649,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>107</v>
       </c>
@@ -3657,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>108</v>
       </c>
@@ -3665,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>101</v>
       </c>
@@ -3673,7 +3678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>109</v>
       </c>
@@ -3681,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>110</v>
       </c>
@@ -3689,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>111</v>
       </c>
@@ -3697,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>112</v>
       </c>
@@ -3705,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>113</v>
       </c>
@@ -3713,7 +3718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>114</v>
       </c>
@@ -3721,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>115</v>
       </c>
@@ -3729,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -3737,7 +3742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -3745,7 +3750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>116</v>
       </c>
@@ -3753,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>117</v>
       </c>
@@ -3761,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>101</v>
       </c>
@@ -3769,7 +3774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>118</v>
       </c>
@@ -3777,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>119</v>
       </c>
@@ -3785,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>120</v>
       </c>
@@ -3793,7 +3798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>121</v>
       </c>
@@ -3801,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>122</v>
       </c>
@@ -3809,7 +3814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>40</v>
       </c>
@@ -3817,7 +3822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>123</v>
       </c>
@@ -3825,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>124</v>
       </c>
@@ -3833,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>125</v>
       </c>
@@ -3841,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>126</v>
       </c>
@@ -3849,7 +3854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>127</v>
       </c>
@@ -3857,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>128</v>
       </c>
@@ -3865,7 +3870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>129</v>
       </c>
@@ -3873,7 +3878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>130</v>
       </c>
@@ -3881,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>131</v>
       </c>
@@ -3889,7 +3894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>132</v>
       </c>
@@ -3897,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -3905,7 +3910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -3913,7 +3918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>133</v>
       </c>
@@ -3921,7 +3926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>134</v>
       </c>
@@ -3929,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>135</v>
       </c>
@@ -3937,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>136</v>
       </c>
@@ -3945,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>137</v>
       </c>
@@ -3953,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>14</v>
       </c>
@@ -3961,7 +3966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>138</v>
       </c>
@@ -3969,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>139</v>
       </c>
@@ -3977,7 +3982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>140</v>
       </c>
@@ -3985,7 +3990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>141</v>
       </c>
@@ -3993,7 +3998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>142</v>
       </c>
@@ -4001,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>143</v>
       </c>
@@ -4009,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>144</v>
       </c>
@@ -4017,7 +4022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>145</v>
       </c>
@@ -4025,7 +4030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>146</v>
       </c>
@@ -4033,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>147</v>
       </c>
@@ -4041,7 +4046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>148</v>
       </c>
@@ -4049,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>149</v>
       </c>
@@ -4057,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>150</v>
       </c>
@@ -4065,7 +4070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>151</v>
       </c>
@@ -4073,7 +4078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>152</v>
       </c>
@@ -4081,7 +4086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>153</v>
       </c>
@@ -4089,7 +4094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>154</v>
       </c>
@@ -4097,7 +4102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>155</v>
       </c>
@@ -4105,7 +4110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>156</v>
       </c>
@@ -4113,7 +4118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>157</v>
       </c>
@@ -4121,7 +4126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>158</v>
       </c>
@@ -4129,7 +4134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>159</v>
       </c>
@@ -4137,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>160</v>
       </c>
@@ -4145,7 +4150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>161</v>
       </c>
@@ -4153,7 +4158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>8</v>
       </c>
@@ -4161,7 +4166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -4169,7 +4174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>18</v>
       </c>
@@ -4177,7 +4182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>162</v>
       </c>
@@ -4185,7 +4190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>163</v>
       </c>
@@ -4193,7 +4198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>8</v>
       </c>
@@ -4201,7 +4206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>164</v>
       </c>
@@ -4209,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>165</v>
       </c>
@@ -4217,7 +4222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>66</v>
       </c>
@@ -4225,7 +4230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>166</v>
       </c>
@@ -4233,7 +4238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>167</v>
       </c>
@@ -4241,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>168</v>
       </c>
@@ -4249,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>169</v>
       </c>
@@ -4257,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>170</v>
       </c>
@@ -4265,7 +4270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>171</v>
       </c>
@@ -4273,7 +4278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>172</v>
       </c>
@@ -4281,7 +4286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>173</v>
       </c>
@@ -4289,7 +4294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>174</v>
       </c>
@@ -4297,7 +4302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>175</v>
       </c>
@@ -4305,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>8</v>
       </c>
@@ -4313,7 +4318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>18</v>
       </c>
@@ -4321,7 +4326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>176</v>
       </c>
@@ -4329,7 +4334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>177</v>
       </c>
@@ -4337,7 +4342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>178</v>
       </c>
@@ -4345,7 +4350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>179</v>
       </c>
@@ -4353,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>180</v>
       </c>
@@ -4361,7 +4366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>181</v>
       </c>
@@ -4369,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>182</v>
       </c>
@@ -4377,7 +4382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>183</v>
       </c>
@@ -4385,7 +4390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>184</v>
       </c>
@@ -4393,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>185</v>
       </c>
@@ -4401,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>186</v>
       </c>
@@ -4409,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>187</v>
       </c>
@@ -4417,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>18</v>
       </c>
@@ -4425,7 +4430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>182</v>
       </c>
@@ -4433,7 +4438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>188</v>
       </c>
@@ -4441,7 +4446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>189</v>
       </c>
@@ -4449,7 +4454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>18</v>
       </c>
@@ -4457,7 +4462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>190</v>
       </c>
@@ -4465,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>8</v>
       </c>
@@ -4473,7 +4478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>191</v>
       </c>
@@ -4481,7 +4486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>192</v>
       </c>
@@ -4489,7 +4494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>193</v>
       </c>
@@ -4497,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>194</v>
       </c>
@@ -4505,7 +4510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>195</v>
       </c>
@@ -4513,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>196</v>
       </c>
@@ -4521,7 +4526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>197</v>
       </c>
@@ -4529,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>198</v>
       </c>
@@ -4537,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>199</v>
       </c>
@@ -4545,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>200</v>
       </c>
@@ -4553,7 +4558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>201</v>
       </c>
@@ -4561,7 +4566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>202</v>
       </c>
@@ -4569,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>203</v>
       </c>
@@ -4577,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>204</v>
       </c>
@@ -4585,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>205</v>
       </c>
@@ -4593,7 +4598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>206</v>
       </c>
@@ -4601,7 +4606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>207</v>
       </c>
@@ -4609,7 +4614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>208</v>
       </c>
@@ -4617,7 +4622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>209</v>
       </c>
@@ -4625,7 +4630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>5</v>
       </c>
@@ -4633,7 +4638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>210</v>
       </c>
@@ -4641,7 +4646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>211</v>
       </c>
@@ -4649,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>212</v>
       </c>
@@ -4657,7 +4662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>213</v>
       </c>
@@ -4665,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>214</v>
       </c>
@@ -4673,7 +4678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>215</v>
       </c>
@@ -4681,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>216</v>
       </c>
@@ -4689,7 +4694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>217</v>
       </c>
@@ -4697,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>218</v>
       </c>
@@ -4705,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>219</v>
       </c>
@@ -4713,7 +4718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>220</v>
       </c>
@@ -4721,7 +4726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>8</v>
       </c>
@@ -4729,7 +4734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>221</v>
       </c>
@@ -4737,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>222</v>
       </c>
@@ -4745,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>223</v>
       </c>
@@ -4753,7 +4758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>224</v>
       </c>
@@ -4761,7 +4766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>225</v>
       </c>
@@ -4769,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>226</v>
       </c>
@@ -4777,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>227</v>
       </c>
@@ -4785,7 +4790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>228</v>
       </c>
@@ -4793,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>229</v>
       </c>
@@ -4801,7 +4806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>230</v>
       </c>
@@ -4809,7 +4814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>18</v>
       </c>
@@ -4817,7 +4822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>231</v>
       </c>
@@ -4825,7 +4830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>8</v>
       </c>
@@ -4833,7 +4838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>232</v>
       </c>
@@ -4841,7 +4846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>233</v>
       </c>
@@ -4849,7 +4854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>234</v>
       </c>
@@ -4857,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>235</v>
       </c>
@@ -4865,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>236</v>
       </c>
@@ -4873,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>237</v>
       </c>
@@ -4881,7 +4886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>238</v>
       </c>
@@ -4889,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>18</v>
       </c>
@@ -4897,7 +4902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>239</v>
       </c>
@@ -4905,7 +4910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>240</v>
       </c>
@@ -4913,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>241</v>
       </c>
@@ -4921,7 +4926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>8</v>
       </c>
@@ -4929,7 +4934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>242</v>
       </c>
@@ -4937,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>243</v>
       </c>
@@ -4945,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>244</v>
       </c>
@@ -4953,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>8</v>
       </c>
@@ -4961,7 +4966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>245</v>
       </c>
@@ -4969,7 +4974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>246</v>
       </c>
@@ -4977,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>30</v>
       </c>
@@ -4985,7 +4990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>247</v>
       </c>
@@ -4993,7 +4998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>248</v>
       </c>
@@ -5001,7 +5006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>249</v>
       </c>
@@ -5009,7 +5014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>8</v>
       </c>
@@ -5017,7 +5022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>250</v>
       </c>
@@ -5025,18 +5030,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>18</v>
       </c>
       <c r="B299" s="4">
         <v>3</v>
       </c>
-      <c r="I299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>167</v>
       </c>
@@ -5044,7 +5046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>251</v>
       </c>
@@ -5062,22 +5064,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B451"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="175" workbookViewId="0">
-      <selection activeCell="B452" sqref="B452"/>
+    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="1" max="1" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>253</v>
       </c>
@@ -5085,7 +5089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>254</v>
       </c>
@@ -5093,7 +5097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -5101,7 +5105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>255</v>
       </c>
@@ -5109,7 +5113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>256</v>
       </c>
@@ -5117,7 +5121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>257</v>
       </c>
@@ -5125,7 +5129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>258</v>
       </c>
@@ -5133,7 +5137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>259</v>
       </c>
@@ -5141,7 +5145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5149,7 +5153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5157,7 +5161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>145</v>
       </c>
@@ -5165,7 +5169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>260</v>
       </c>
@@ -5173,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>261</v>
       </c>
@@ -5181,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5189,7 +5193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>262</v>
       </c>
@@ -5197,7 +5201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -5205,7 +5209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>263</v>
       </c>
@@ -5213,7 +5217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>203</v>
       </c>
@@ -5221,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>264</v>
       </c>
@@ -5229,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>265</v>
       </c>
@@ -5237,7 +5241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -5245,7 +5249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>266</v>
       </c>
@@ -5253,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>267</v>
       </c>
@@ -5261,7 +5265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>268</v>
       </c>
@@ -5269,7 +5273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>269</v>
       </c>
@@ -5277,7 +5281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>270</v>
       </c>
@@ -5285,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>271</v>
       </c>
@@ -5293,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>272</v>
       </c>
@@ -5301,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -5309,7 +5313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -5317,7 +5321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -5325,7 +5329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>273</v>
       </c>
@@ -5333,7 +5337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>274</v>
       </c>
@@ -5341,7 +5345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -5349,7 +5353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>275</v>
       </c>
@@ -5357,7 +5361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>276</v>
       </c>
@@ -5365,7 +5369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>277</v>
       </c>
@@ -5373,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>278</v>
       </c>
@@ -5381,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>279</v>
       </c>
@@ -5389,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>280</v>
       </c>
@@ -5397,7 +5401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>281</v>
       </c>
@@ -5405,7 +5409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>282</v>
       </c>
@@ -5413,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -5421,7 +5425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>283</v>
       </c>
@@ -5429,7 +5433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>284</v>
       </c>
@@ -5437,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>285</v>
       </c>
@@ -5445,7 +5449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>286</v>
       </c>
@@ -5453,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>287</v>
       </c>
@@ -5461,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>288</v>
       </c>
@@ -5469,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>289</v>
       </c>
@@ -5477,7 +5481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>290</v>
       </c>
@@ -5485,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>291</v>
       </c>
@@ -5493,7 +5497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -5501,7 +5505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>292</v>
       </c>
@@ -5509,7 +5513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -5517,7 +5521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>293</v>
       </c>
@@ -5525,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>294</v>
       </c>
@@ -5533,7 +5537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>295</v>
       </c>
@@ -5541,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>296</v>
       </c>
@@ -5549,7 +5553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>297</v>
       </c>
@@ -5557,7 +5561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>298</v>
       </c>
@@ -5565,7 +5569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>299</v>
       </c>
@@ -5573,7 +5577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>300</v>
       </c>
@@ -5581,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>18</v>
       </c>
@@ -5589,7 +5593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>301</v>
       </c>
@@ -5597,7 +5601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>302</v>
       </c>
@@ -5605,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>303</v>
       </c>
@@ -5613,7 +5617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>304</v>
       </c>
@@ -5621,7 +5625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>305</v>
       </c>
@@ -5629,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>306</v>
       </c>
@@ -5637,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>307</v>
       </c>
@@ -5645,7 +5649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>308</v>
       </c>
@@ -5653,7 +5657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>309</v>
       </c>
@@ -5661,7 +5665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>310</v>
       </c>
@@ -5669,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -5677,7 +5681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>311</v>
       </c>
@@ -5685,7 +5689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>312</v>
       </c>
@@ -5693,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>313</v>
       </c>
@@ -5701,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>314</v>
       </c>
@@ -5709,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>315</v>
       </c>
@@ -5717,7 +5721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>316</v>
       </c>
@@ -5725,7 +5729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -5733,7 +5737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>317</v>
       </c>
@@ -5741,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>318</v>
       </c>
@@ -5749,7 +5753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>319</v>
       </c>
@@ -5757,7 +5761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>320</v>
       </c>
@@ -5765,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>321</v>
       </c>
@@ -5773,7 +5777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>322</v>
       </c>
@@ -5781,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>323</v>
       </c>
@@ -5789,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>324</v>
       </c>
@@ -5797,7 +5801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>325</v>
       </c>
@@ -5805,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>326</v>
       </c>
@@ -5813,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>327</v>
       </c>
@@ -5821,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>328</v>
       </c>
@@ -5829,7 +5833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>329</v>
       </c>
@@ -5837,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>330</v>
       </c>
@@ -5845,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>331</v>
       </c>
@@ -5853,7 +5857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>332</v>
       </c>
@@ -5861,7 +5865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>333</v>
       </c>
@@ -5869,7 +5873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>334</v>
       </c>
@@ -5877,7 +5881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>40</v>
       </c>
@@ -5885,7 +5889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>41</v>
       </c>
@@ -5893,7 +5897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>335</v>
       </c>
@@ -5901,7 +5905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -5909,7 +5913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>336</v>
       </c>
@@ -5917,7 +5921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>337</v>
       </c>
@@ -5925,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>338</v>
       </c>
@@ -5933,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>339</v>
       </c>
@@ -5941,7 +5945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>340</v>
       </c>
@@ -5949,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>341</v>
       </c>
@@ -5957,7 +5961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>342</v>
       </c>
@@ -5965,7 +5969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>343</v>
       </c>
@@ -5973,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>344</v>
       </c>
@@ -5981,7 +5985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>345</v>
       </c>
@@ -5989,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>346</v>
       </c>
@@ -5997,7 +6001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>347</v>
       </c>
@@ -6005,7 +6009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>348</v>
       </c>
@@ -6013,7 +6017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>349</v>
       </c>
@@ -6021,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>350</v>
       </c>
@@ -6029,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>351</v>
       </c>
@@ -6037,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>40</v>
       </c>
@@ -6045,7 +6049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>352</v>
       </c>
@@ -6053,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>353</v>
       </c>
@@ -6061,7 +6065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -6069,7 +6073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>354</v>
       </c>
@@ -6077,7 +6081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>355</v>
       </c>
@@ -6085,7 +6089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -6093,7 +6097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>18</v>
       </c>
@@ -6101,7 +6105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>356</v>
       </c>
@@ -6109,7 +6113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>357</v>
       </c>
@@ -6117,7 +6121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>358</v>
       </c>
@@ -6125,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>359</v>
       </c>
@@ -6133,7 +6137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>360</v>
       </c>
@@ -6141,7 +6145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>361</v>
       </c>
@@ -6149,7 +6153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>362</v>
       </c>
@@ -6157,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>363</v>
       </c>
@@ -6165,7 +6169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>364</v>
       </c>
@@ -6173,7 +6177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -6181,7 +6185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>365</v>
       </c>
@@ -6189,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>18</v>
       </c>
@@ -6197,7 +6201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>366</v>
       </c>
@@ -6205,7 +6209,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>367</v>
       </c>
@@ -6213,7 +6217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>368</v>
       </c>
@@ -6221,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>369</v>
       </c>
@@ -6229,7 +6233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>370</v>
       </c>
@@ -6237,7 +6241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>371</v>
       </c>
@@ -6245,7 +6249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>372</v>
       </c>
@@ -6253,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>373</v>
       </c>
@@ -6261,7 +6265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>374</v>
       </c>
@@ -6269,7 +6273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>375</v>
       </c>
@@ -6277,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>376</v>
       </c>
@@ -6285,7 +6289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>377</v>
       </c>
@@ -6293,7 +6297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>378</v>
       </c>
@@ -6301,7 +6305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>379</v>
       </c>
@@ -6309,7 +6313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -6317,7 +6321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>380</v>
       </c>
@@ -6325,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>381</v>
       </c>
@@ -6333,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>382</v>
       </c>
@@ -6341,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>383</v>
       </c>
@@ -6349,7 +6353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>384</v>
       </c>
@@ -6357,7 +6361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>385</v>
       </c>
@@ -6365,7 +6369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>386</v>
       </c>
@@ -6373,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>387</v>
       </c>
@@ -6381,7 +6385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>388</v>
       </c>
@@ -6389,7 +6393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>389</v>
       </c>
@@ -6397,7 +6401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>390</v>
       </c>
@@ -6405,7 +6409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>391</v>
       </c>
@@ -6413,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>392</v>
       </c>
@@ -6421,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>393</v>
       </c>
@@ -6429,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>394</v>
       </c>
@@ -6437,7 +6441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>395</v>
       </c>
@@ -6445,7 +6449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>396</v>
       </c>
@@ -6453,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>145</v>
       </c>
@@ -6461,7 +6465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>397</v>
       </c>
@@ -6469,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>8</v>
       </c>
@@ -6477,7 +6481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>398</v>
       </c>
@@ -6485,7 +6489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>399</v>
       </c>
@@ -6493,7 +6497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>400</v>
       </c>
@@ -6501,7 +6505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>401</v>
       </c>
@@ -6509,7 +6513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>18</v>
       </c>
@@ -6517,7 +6521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>402</v>
       </c>
@@ -6525,7 +6529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>18</v>
       </c>
@@ -6533,7 +6537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>403</v>
       </c>
@@ -6541,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>404</v>
       </c>
@@ -6549,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>405</v>
       </c>
@@ -6557,7 +6561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>406</v>
       </c>
@@ -6565,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>407</v>
       </c>
@@ -6573,7 +6577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>408</v>
       </c>
@@ -6581,7 +6585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>409</v>
       </c>
@@ -6589,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>410</v>
       </c>
@@ -6597,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>18</v>
       </c>
@@ -6605,7 +6609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>8</v>
       </c>
@@ -6613,7 +6617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>411</v>
       </c>
@@ -6621,7 +6625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>412</v>
       </c>
@@ -6629,7 +6633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>413</v>
       </c>
@@ -6637,7 +6641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>414</v>
       </c>
@@ -6645,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>415</v>
       </c>
@@ -6653,7 +6657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>416</v>
       </c>
@@ -6661,7 +6665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>417</v>
       </c>
@@ -6669,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>418</v>
       </c>
@@ -6677,7 +6681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>419</v>
       </c>
@@ -6685,7 +6689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>420</v>
       </c>
@@ -6693,7 +6697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>14</v>
       </c>
@@ -6701,7 +6705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>8</v>
       </c>
@@ -6709,7 +6713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>421</v>
       </c>
@@ -6717,7 +6721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>422</v>
       </c>
@@ -6725,7 +6729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>423</v>
       </c>
@@ -6733,7 +6737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>5</v>
       </c>
@@ -6741,7 +6745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>424</v>
       </c>
@@ -6749,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>425</v>
       </c>
@@ -6757,7 +6761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>426</v>
       </c>
@@ -6765,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -6773,7 +6777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>427</v>
       </c>
@@ -6781,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>428</v>
       </c>
@@ -6789,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>429</v>
       </c>
@@ -6797,7 +6801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>430</v>
       </c>
@@ -6805,7 +6809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>431</v>
       </c>
@@ -6813,7 +6817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>432</v>
       </c>
@@ -6821,7 +6825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>433</v>
       </c>
@@ -6829,7 +6833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>434</v>
       </c>
@@ -6837,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>435</v>
       </c>
@@ -6845,7 +6849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>436</v>
       </c>
@@ -6853,7 +6857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>14</v>
       </c>
@@ -6861,7 +6865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>437</v>
       </c>
@@ -6869,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>438</v>
       </c>
@@ -6877,7 +6881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>439</v>
       </c>
@@ -6885,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>440</v>
       </c>
@@ -6893,7 +6897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>441</v>
       </c>
@@ -6901,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>442</v>
       </c>
@@ -6909,7 +6913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>443</v>
       </c>
@@ -6917,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>444</v>
       </c>
@@ -6925,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>445</v>
       </c>
@@ -6933,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>446</v>
       </c>
@@ -6941,7 +6945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>447</v>
       </c>
@@ -6949,7 +6953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>448</v>
       </c>
@@ -6957,7 +6961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>449</v>
       </c>
@@ -6965,7 +6969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>450</v>
       </c>
@@ -6973,7 +6977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>451</v>
       </c>
@@ -6981,7 +6985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>56</v>
       </c>
@@ -6989,7 +6993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>452</v>
       </c>
@@ -6997,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>453</v>
       </c>
@@ -7005,7 +7009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>454</v>
       </c>
@@ -7013,7 +7017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>455</v>
       </c>
@@ -7021,7 +7025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>456</v>
       </c>
@@ -7029,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>457</v>
       </c>
@@ -7037,7 +7041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>458</v>
       </c>
@@ -7045,7 +7049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>8</v>
       </c>
@@ -7053,7 +7057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>459</v>
       </c>
@@ -7061,7 +7065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>460</v>
       </c>
@@ -7069,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>461</v>
       </c>
@@ -7077,7 +7081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>462</v>
       </c>
@@ -7085,7 +7089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>463</v>
       </c>
@@ -7093,7 +7097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>8</v>
       </c>
@@ -7101,7 +7105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>464</v>
       </c>
@@ -7109,7 +7113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>465</v>
       </c>
@@ -7117,7 +7121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>466</v>
       </c>
@@ -7125,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>467</v>
       </c>
@@ -7133,7 +7137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>468</v>
       </c>
@@ -7141,7 +7145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>469</v>
       </c>
@@ -7149,7 +7153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>470</v>
       </c>
@@ -7157,7 +7161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>8</v>
       </c>
@@ -7165,7 +7169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>471</v>
       </c>
@@ -7173,7 +7177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>472</v>
       </c>
@@ -7181,7 +7185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>473</v>
       </c>
@@ -7189,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>18</v>
       </c>
@@ -7197,7 +7201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>474</v>
       </c>
@@ -7205,7 +7209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>475</v>
       </c>
@@ -7213,7 +7217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>476</v>
       </c>
@@ -7221,7 +7225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>477</v>
       </c>
@@ -7229,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>18</v>
       </c>
@@ -7237,7 +7241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>8</v>
       </c>
@@ -7245,7 +7249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>478</v>
       </c>
@@ -7253,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>291</v>
       </c>
@@ -7261,7 +7265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>479</v>
       </c>
@@ -7269,7 +7273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>480</v>
       </c>
@@ -7277,7 +7281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>481</v>
       </c>
@@ -7285,7 +7289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>482</v>
       </c>
@@ -7293,7 +7297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>483</v>
       </c>
@@ -7301,7 +7305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>484</v>
       </c>
@@ -7309,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>485</v>
       </c>
@@ -7317,7 +7321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>486</v>
       </c>
@@ -7325,7 +7329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>18</v>
       </c>
@@ -7333,7 +7337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>40</v>
       </c>
@@ -7341,7 +7345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>487</v>
       </c>
@@ -7349,7 +7353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>488</v>
       </c>
@@ -7357,7 +7361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>489</v>
       </c>
@@ -7365,7 +7369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>490</v>
       </c>
@@ -7373,7 +7377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>491</v>
       </c>
@@ -7381,7 +7385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>492</v>
       </c>
@@ -7389,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>493</v>
       </c>
@@ -7397,7 +7401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>494</v>
       </c>
@@ -7405,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>495</v>
       </c>
@@ -7413,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>496</v>
       </c>
@@ -7421,7 +7425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>497</v>
       </c>
@@ -7429,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>498</v>
       </c>
@@ -7437,7 +7441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>9</v>
       </c>
@@ -7445,7 +7449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>499</v>
       </c>
@@ -7453,7 +7457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>500</v>
       </c>
@@ -7461,7 +7465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>8</v>
       </c>
@@ -7469,7 +7473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>501</v>
       </c>
@@ -7477,7 +7481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>56</v>
       </c>
@@ -7485,7 +7489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>40</v>
       </c>
@@ -7493,7 +7497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>502</v>
       </c>
@@ -7501,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>503</v>
       </c>
@@ -7509,7 +7513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>504</v>
       </c>
@@ -7517,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>505</v>
       </c>
@@ -7525,7 +7529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>506</v>
       </c>
@@ -7533,7 +7537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>507</v>
       </c>
@@ -7541,7 +7545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>508</v>
       </c>
@@ -7549,7 +7553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>509</v>
       </c>
@@ -7557,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>510</v>
       </c>
@@ -7565,7 +7569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>511</v>
       </c>
@@ -7573,7 +7577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>512</v>
       </c>
@@ -7581,7 +7585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>8</v>
       </c>
@@ -7589,7 +7593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>513</v>
       </c>
@@ -7597,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>514</v>
       </c>
@@ -7605,7 +7609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>515</v>
       </c>
@@ -7613,7 +7617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>8</v>
       </c>
@@ -7621,7 +7625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>516</v>
       </c>
@@ -7629,7 +7633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>8</v>
       </c>
@@ -7637,7 +7641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>291</v>
       </c>
@@ -7645,7 +7649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>517</v>
       </c>
@@ -7653,7 +7657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>18</v>
       </c>
@@ -7661,7 +7665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>518</v>
       </c>
@@ -7669,7 +7673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>519</v>
       </c>
@@ -7677,7 +7681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>520</v>
       </c>
@@ -7685,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>521</v>
       </c>
@@ -7693,7 +7697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>522</v>
       </c>
@@ -7701,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>523</v>
       </c>
@@ -7709,7 +7713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>524</v>
       </c>
@@ -7717,7 +7721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>525</v>
       </c>
@@ -7725,7 +7729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>41</v>
       </c>
@@ -7733,7 +7737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>526</v>
       </c>
@@ -7741,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>527</v>
       </c>
@@ -7749,7 +7753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>14</v>
       </c>
@@ -7757,7 +7761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>528</v>
       </c>
@@ -7765,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>529</v>
       </c>
@@ -7773,7 +7777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>530</v>
       </c>
@@ -7781,7 +7785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>182</v>
       </c>
@@ -7789,7 +7793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>531</v>
       </c>
@@ -7797,7 +7801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>9</v>
       </c>
@@ -7805,7 +7809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>532</v>
       </c>
@@ -7813,7 +7817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>533</v>
       </c>
@@ -7821,7 +7825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>534</v>
       </c>
@@ -7829,7 +7833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>18</v>
       </c>
@@ -7837,7 +7841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>535</v>
       </c>
@@ -7845,7 +7849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>56</v>
       </c>
@@ -7853,7 +7857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>536</v>
       </c>
@@ -7861,7 +7865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>8</v>
       </c>
@@ -7869,7 +7873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>18</v>
       </c>
@@ -7877,7 +7881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>537</v>
       </c>
@@ -7885,7 +7889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>538</v>
       </c>
@@ -7893,7 +7897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>539</v>
       </c>
@@ -7901,7 +7905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>540</v>
       </c>
@@ -7909,7 +7913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>541</v>
       </c>
@@ -7917,7 +7921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>542</v>
       </c>
@@ -7925,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>543</v>
       </c>
@@ -7933,7 +7937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>544</v>
       </c>
@@ -7941,7 +7945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>545</v>
       </c>
@@ -7949,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>546</v>
       </c>
@@ -7957,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>8</v>
       </c>
@@ -7965,7 +7969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>547</v>
       </c>
@@ -7973,7 +7977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>548</v>
       </c>
@@ -7981,7 +7985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>549</v>
       </c>
@@ -7989,7 +7993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>550</v>
       </c>
@@ -7997,7 +8001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>551</v>
       </c>
@@ -8005,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>552</v>
       </c>
@@ -8013,7 +8017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>553</v>
       </c>
@@ -8021,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>554</v>
       </c>
@@ -8029,7 +8033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>555</v>
       </c>
@@ -8037,7 +8041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>556</v>
       </c>
@@ -8045,7 +8049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>18</v>
       </c>
@@ -8053,7 +8057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>557</v>
       </c>
@@ -8061,7 +8065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>558</v>
       </c>
@@ -8069,7 +8073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>559</v>
       </c>
@@ -8077,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>560</v>
       </c>
@@ -8085,7 +8089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>561</v>
       </c>
@@ -8093,7 +8097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>562</v>
       </c>
@@ -8101,7 +8105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>563</v>
       </c>
@@ -8109,7 +8113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>564</v>
       </c>
@@ -8117,7 +8121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>565</v>
       </c>
@@ -8125,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>566</v>
       </c>
@@ -8133,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>567</v>
       </c>
@@ -8141,7 +8145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>18</v>
       </c>
@@ -8149,7 +8153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>568</v>
       </c>
@@ -8157,7 +8161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>569</v>
       </c>
@@ -8165,7 +8169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>570</v>
       </c>
@@ -8173,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>66</v>
       </c>
@@ -8181,7 +8185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>571</v>
       </c>
@@ -8189,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>572</v>
       </c>
@@ -8197,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>573</v>
       </c>
@@ -8205,7 +8209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>574</v>
       </c>
@@ -8213,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>575</v>
       </c>
@@ -8221,7 +8225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>576</v>
       </c>
@@ -8229,7 +8233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>577</v>
       </c>
@@ -8237,7 +8241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>578</v>
       </c>
@@ -8245,7 +8249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>579</v>
       </c>
@@ -8253,7 +8257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>580</v>
       </c>
@@ -8261,7 +8265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>581</v>
       </c>
@@ -8269,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>582</v>
       </c>
@@ -8277,7 +8281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>583</v>
       </c>
@@ -8285,7 +8289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>584</v>
       </c>
@@ -8293,7 +8297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>585</v>
       </c>
@@ -8301,7 +8305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>586</v>
       </c>
@@ -8309,7 +8313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>587</v>
       </c>
@@ -8317,7 +8321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>8</v>
       </c>
@@ -8325,7 +8329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>588</v>
       </c>
@@ -8333,7 +8337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>589</v>
       </c>
@@ -8341,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>8</v>
       </c>
@@ -8349,7 +8353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>590</v>
       </c>
@@ -8357,7 +8361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>18</v>
       </c>
@@ -8365,7 +8369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>591</v>
       </c>
@@ -8373,7 +8377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>592</v>
       </c>
@@ -8381,7 +8385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>593</v>
       </c>
@@ -8389,7 +8393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>18</v>
       </c>
@@ -8397,7 +8401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>594</v>
       </c>
@@ -8405,7 +8409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>595</v>
       </c>
@@ -8413,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>596</v>
       </c>
@@ -8421,7 +8425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>597</v>
       </c>
@@ -8429,7 +8433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>598</v>
       </c>
@@ -8437,7 +8441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>599</v>
       </c>
@@ -8445,7 +8449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>600</v>
       </c>
@@ -8453,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>601</v>
       </c>
@@ -8461,7 +8465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>602</v>
       </c>
@@ -8469,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>8</v>
       </c>
@@ -8477,7 +8481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>603</v>
       </c>
@@ -8485,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>604</v>
       </c>
@@ -8493,7 +8497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>605</v>
       </c>
@@ -8501,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>41</v>
       </c>
@@ -8509,7 +8513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>606</v>
       </c>
@@ -8517,7 +8521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>607</v>
       </c>
@@ -8525,7 +8529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>608</v>
       </c>
@@ -8533,7 +8537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>609</v>
       </c>
@@ -8541,7 +8545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>610</v>
       </c>
@@ -8549,7 +8553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>611</v>
       </c>
@@ -8557,7 +8561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>612</v>
       </c>
@@ -8565,7 +8569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>613</v>
       </c>
@@ -8573,7 +8577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>614</v>
       </c>
@@ -8581,7 +8585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>615</v>
       </c>
@@ -8589,7 +8593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>616</v>
       </c>
@@ -8597,7 +8601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>8</v>
       </c>
@@ -8605,7 +8609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>617</v>
       </c>
@@ -8613,7 +8617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>618</v>
       </c>
@@ -8621,7 +8625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>619</v>
       </c>
@@ -8629,7 +8633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>620</v>
       </c>
@@ -8637,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>621</v>
       </c>
@@ -8645,7 +8649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>622</v>
       </c>
@@ -8653,7 +8657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>623</v>
       </c>
@@ -8661,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>624</v>
       </c>
@@ -8669,7 +8673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>625</v>
       </c>
